--- a/capiq_data/in_process_data/IQ178254.xlsx
+++ b/capiq_data/in_process_data/IQ178254.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8B410-59AE-43FA-8F10-CBAB7031E9DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26585CB9-BFFB-4996-8B09-826AC887A459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ff166c87-d5c4-4813-a7d6-170eac03f63e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"fec0cd44-7fa4-438e-a103-90406c789b14"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,120 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +847,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>14.718999999999999</v>
+        <v>12.542</v>
       </c>
       <c r="D2">
-        <v>2211.7910000000002</v>
+        <v>283.14</v>
       </c>
       <c r="E2">
-        <v>993.11599999999999</v>
+        <v>149.07900000000001</v>
       </c>
       <c r="F2">
-        <v>97.986000000000004</v>
+        <v>32.572000000000003</v>
       </c>
       <c r="G2">
-        <v>1703.4349999999999</v>
+        <v>256.30500000000001</v>
       </c>
       <c r="H2">
-        <v>3701.4749999999999</v>
+        <v>456.61799999999999</v>
       </c>
       <c r="I2">
-        <v>1317.4459999999999</v>
+        <v>198.68600000000001</v>
       </c>
       <c r="J2">
-        <v>820.58699999999999</v>
+        <v>34.286000000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +886,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1389.855</v>
+        <v>238.41</v>
       </c>
       <c r="O2">
-        <v>2413.3359999999998</v>
+        <v>297.98700000000002</v>
       </c>
       <c r="P2">
-        <v>820.58699999999999</v>
+        <v>48.024000000000001</v>
       </c>
       <c r="Q2">
-        <v>-42.819000000000003</v>
+        <v>-5.0640000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36922</v>
       </c>
       <c r="S2">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1288.1389999999999</v>
+        <v>158.631</v>
       </c>
       <c r="U2">
-        <v>229.101</v>
+        <v>28.530999999999999</v>
       </c>
       <c r="V2">
-        <v>47.286999999999999</v>
+        <v>12.538</v>
       </c>
       <c r="W2">
-        <v>-7.9790000000000001</v>
+        <v>-1.359</v>
       </c>
       <c r="X2">
-        <v>-4.8129999999999997</v>
+        <v>-9.98</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AA2">
-        <v>14.718999999999999</v>
+        <v>12.542</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>84.694000000000003</v>
+        <v>20.888999999999999</v>
       </c>
       <c r="D3">
-        <v>2326.585</v>
+        <v>268.19</v>
       </c>
       <c r="E3">
-        <v>1152.2539999999999</v>
+        <v>143.45699999999999</v>
       </c>
       <c r="F3">
-        <v>207.22499999999999</v>
+        <v>46.674999999999997</v>
       </c>
       <c r="G3">
-        <v>1915.7539999999999</v>
+        <v>260.74299999999999</v>
       </c>
       <c r="H3">
-        <v>3989.76</v>
+        <v>466.625</v>
       </c>
       <c r="I3">
-        <v>1498.508</v>
+        <v>179.37100000000001</v>
       </c>
       <c r="J3">
-        <v>842.95600000000002</v>
+        <v>34.286000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +966,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1575.242</v>
+        <v>226.69399999999999</v>
       </c>
       <c r="O3">
-        <v>2621.81</v>
+        <v>286.74599999999998</v>
       </c>
       <c r="P3">
-        <v>842.95600000000002</v>
+        <v>48.024000000000001</v>
       </c>
       <c r="Q3">
-        <v>-4.9870000000000001</v>
+        <v>10.212999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1367.95</v>
+        <v>179.87899999999999</v>
       </c>
       <c r="U3">
-        <v>224.114</v>
+        <v>38.744</v>
       </c>
       <c r="V3">
-        <v>130.542</v>
+        <v>18.341999999999999</v>
       </c>
       <c r="W3">
-        <v>-7.984</v>
+        <v>-1.359</v>
       </c>
       <c r="X3">
-        <v>5.5209999999999999</v>
+        <v>-0.27</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-67.012</v>
+        <v>-1.75</v>
       </c>
       <c r="AA3">
-        <v>84.694000000000003</v>
+        <v>20.888999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>192.23500000000001</v>
+        <v>19.606999999999999</v>
       </c>
       <c r="D4">
-        <v>2967.1329999999998</v>
+        <v>264.83699999999999</v>
       </c>
       <c r="E4">
-        <v>1003.527</v>
+        <v>146.07400000000001</v>
       </c>
       <c r="F4">
-        <v>380.69299999999998</v>
+        <v>43.805999999999997</v>
       </c>
       <c r="G4">
-        <v>2024.9739999999999</v>
+        <v>284.13</v>
       </c>
       <c r="H4">
-        <v>4165.3029999999999</v>
+        <v>490.42899999999997</v>
       </c>
       <c r="I4">
-        <v>1450.64</v>
+        <v>181.18199999999999</v>
       </c>
       <c r="J4">
-        <v>847.33799999999997</v>
+        <v>34.286000000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1052,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1557.5930000000001</v>
+        <v>226.399</v>
       </c>
       <c r="O4">
-        <v>2606.1149999999998</v>
+        <v>288.69499999999999</v>
       </c>
       <c r="P4">
-        <v>847.33799999999997</v>
+        <v>42.856999999999999</v>
       </c>
       <c r="Q4">
-        <v>202.57499999999999</v>
+        <v>27.096</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37103</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="T4">
-        <v>1559.1880000000001</v>
+        <v>201.73400000000001</v>
       </c>
       <c r="U4">
-        <v>426.68900000000002</v>
+        <v>65.84</v>
       </c>
       <c r="V4">
-        <v>327.45400000000001</v>
+        <v>37.183</v>
       </c>
       <c r="W4">
-        <v>-8</v>
+        <v>-1.548</v>
       </c>
       <c r="X4">
-        <v>-10.867000000000001</v>
+        <v>-3.0179999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-31.745000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="AA4">
-        <v>192.23500000000001</v>
+        <v>19.606999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>523.08799999999997</v>
+        <v>20.222000000000001</v>
       </c>
       <c r="D5">
-        <v>5173.3980000000001</v>
+        <v>257.947</v>
       </c>
       <c r="E5">
-        <v>1341.683</v>
+        <v>107.739</v>
       </c>
       <c r="F5">
-        <v>955.58799999999997</v>
+        <v>41.216999999999999</v>
       </c>
       <c r="G5">
-        <v>4379.0879999999997</v>
+        <v>271.279</v>
       </c>
       <c r="H5">
-        <v>9916.4629999999997</v>
+        <v>480.72199999999998</v>
       </c>
       <c r="I5">
-        <v>2102.915</v>
+        <v>147.02600000000001</v>
       </c>
       <c r="J5">
-        <v>1232.365</v>
+        <v>34.286000000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1135,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2380.84</v>
+        <v>197.797</v>
       </c>
       <c r="O5">
-        <v>4255.6729999999998</v>
+        <v>260.49400000000003</v>
       </c>
       <c r="P5">
-        <v>1232.365</v>
+        <v>42.856999999999999</v>
       </c>
       <c r="Q5">
-        <v>1156.17</v>
+        <v>22.687000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37195</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5660.79</v>
+        <v>220.22800000000001</v>
       </c>
       <c r="U5">
-        <v>1582.8589999999999</v>
+        <v>88.527000000000001</v>
       </c>
       <c r="V5">
-        <v>631.20699999999999</v>
+        <v>24.404</v>
       </c>
       <c r="W5">
-        <v>-113.393</v>
+        <v>-1.55</v>
       </c>
       <c r="X5">
-        <v>-143.25299999999999</v>
+        <v>-0.98299999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-86.024000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="AA5">
-        <v>523.08799999999997</v>
+        <v>20.222000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>223.38</v>
+        <v>-0.48499999999999999</v>
       </c>
       <c r="D6">
-        <v>4972.4120000000003</v>
+        <v>166.75399999999999</v>
       </c>
       <c r="E6">
-        <v>708.85699999999997</v>
+        <v>103.63</v>
       </c>
       <c r="F6">
-        <v>467.863</v>
+        <v>9.4659999999999993</v>
       </c>
       <c r="G6">
-        <v>3920.7460000000001</v>
+        <v>240.358</v>
       </c>
       <c r="H6">
-        <v>9576.2430000000004</v>
+        <v>454.40899999999999</v>
       </c>
       <c r="I6">
-        <v>1504.694</v>
+        <v>140.23500000000001</v>
       </c>
       <c r="J6">
-        <v>1215.2619999999999</v>
+        <v>25.713999999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1218,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1890.683</v>
+        <v>179.678</v>
       </c>
       <c r="O6">
-        <v>3740.3429999999998</v>
+        <v>235.21299999999999</v>
       </c>
       <c r="P6">
-        <v>1215.2619999999999</v>
+        <v>34.284999999999997</v>
       </c>
       <c r="Q6">
-        <v>-3.9550000000000001</v>
+        <v>-40.273000000000003</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37287</v>
       </c>
       <c r="S6">
-        <v>2382</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5835.9</v>
+        <v>219.196</v>
       </c>
       <c r="U6">
-        <v>1578.904</v>
+        <v>48.253999999999998</v>
       </c>
       <c r="V6">
-        <v>249.18799999999999</v>
+        <v>-30.876000000000001</v>
       </c>
       <c r="W6">
-        <v>-122.756</v>
+        <v>-1.5549999999999999</v>
       </c>
       <c r="X6">
-        <v>-68.483000000000004</v>
+        <v>-9.3480000000000008</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-85.222999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="AA6">
-        <v>223.38</v>
+        <v>-0.48499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>241.696</v>
+        <v>6.1989999999999998</v>
       </c>
       <c r="D7">
-        <v>4931.7380000000003</v>
+        <v>210.327</v>
       </c>
       <c r="E7">
-        <v>733.14700000000005</v>
+        <v>128.845</v>
       </c>
       <c r="F7">
-        <v>503.19400000000002</v>
+        <v>21.26</v>
       </c>
       <c r="G7">
-        <v>4127.6009999999997</v>
+        <v>279.315</v>
       </c>
       <c r="H7">
-        <v>9785.75</v>
+        <v>494.87</v>
       </c>
       <c r="I7">
-        <v>1641.107</v>
+        <v>177.43799999999999</v>
       </c>
       <c r="J7">
-        <v>1286.634</v>
+        <v>25.713999999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1298,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-238.761</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2118.3809999999999</v>
+        <v>212.84100000000001</v>
       </c>
       <c r="O7">
-        <v>3996.1709999999998</v>
+        <v>270.274</v>
       </c>
       <c r="P7">
-        <v>1312.915</v>
+        <v>34.284999999999997</v>
       </c>
       <c r="Q7">
-        <v>80.646000000000001</v>
+        <v>9.2959999999999994</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5789.5789999999997</v>
+        <v>224.596</v>
       </c>
       <c r="U7">
-        <v>1659.55</v>
+        <v>57.55</v>
       </c>
       <c r="V7">
-        <v>253.905</v>
+        <v>17.677</v>
       </c>
       <c r="W7">
-        <v>-126.01900000000001</v>
+        <v>-1.5580000000000001</v>
       </c>
       <c r="X7">
-        <v>-104.57899999999999</v>
+        <v>-1.5580000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-7.2930000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="AA7">
-        <v>241.696</v>
+        <v>6.1989999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>493.49900000000002</v>
+        <v>6.093</v>
       </c>
       <c r="D8">
-        <v>4806.6809999999996</v>
+        <v>253.87799999999999</v>
       </c>
       <c r="E8">
-        <v>603.726</v>
+        <v>135.39500000000001</v>
       </c>
       <c r="F8">
-        <v>902.19100000000003</v>
+        <v>22.428999999999998</v>
       </c>
       <c r="G8">
-        <v>3705.692</v>
+        <v>278.84399999999999</v>
       </c>
       <c r="H8">
-        <v>9382.5319999999992</v>
+        <v>502.30599999999998</v>
       </c>
       <c r="I8">
-        <v>1096.2159999999999</v>
+        <v>185.05799999999999</v>
       </c>
       <c r="J8">
-        <v>1297.5450000000001</v>
+        <v>25.713999999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1384,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1561.6849999999999</v>
+        <v>218.971</v>
       </c>
       <c r="O8">
-        <v>3434.9070000000002</v>
+        <v>273.75</v>
       </c>
       <c r="P8">
-        <v>1297.5450000000001</v>
+        <v>34.284999999999997</v>
       </c>
       <c r="Q8">
-        <v>-287.35199999999998</v>
+        <v>14.08</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37468</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="T8">
-        <v>5947.625</v>
+        <v>228.55600000000001</v>
       </c>
       <c r="U8">
-        <v>1372.1980000000001</v>
+        <v>71.63</v>
       </c>
       <c r="V8">
-        <v>175.59800000000001</v>
+        <v>31.096</v>
       </c>
       <c r="W8">
-        <v>-123.93899999999999</v>
+        <v>-1.714</v>
       </c>
       <c r="X8">
-        <v>-387.17700000000002</v>
+        <v>-2.669</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-9.14</v>
+        <v>0.15</v>
       </c>
       <c r="AA8">
-        <v>493.49900000000002</v>
+        <v>6.093</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>600.37300000000005</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5204.7979999999998</v>
+        <v>266.46699999999998</v>
       </c>
       <c r="E9">
-        <v>736.87400000000002</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1072.203</v>
+        <v>16.928000000000001</v>
       </c>
       <c r="G9">
-        <v>4631.9210000000003</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>10345.936</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1530.7139999999999</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1349.991</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1467,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2077.16</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3986.44</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1349.991</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>685.21</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6359.4960000000001</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2057.4079999999999</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>742.28499999999997</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-132.65199999999999</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>32.107999999999997</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-9.6660000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>600.37300000000005</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>391.60399999999998</v>
+        <v>-1.9518</v>
       </c>
       <c r="D10">
-        <v>5147.5069999999996</v>
+        <v>373.15679999999998</v>
       </c>
       <c r="E10">
-        <v>634.23</v>
+        <v>148.15799999999999</v>
       </c>
       <c r="F10">
-        <v>777.52700000000004</v>
+        <v>11.936199999999999</v>
       </c>
       <c r="G10">
-        <v>4470.2650000000003</v>
+        <v>254.34700000000001</v>
       </c>
       <c r="H10">
-        <v>10328.996999999999</v>
+        <v>515.79300000000001</v>
       </c>
       <c r="I10">
-        <v>1314.1510000000001</v>
+        <v>207.41800000000001</v>
       </c>
       <c r="J10">
-        <v>1339.6679999999999</v>
+        <v>17.143000000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1550,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1654.444</v>
+        <v>241.90199999999999</v>
       </c>
       <c r="O10">
-        <v>3686.3389999999999</v>
+        <v>287.29899999999998</v>
       </c>
       <c r="P10">
-        <v>1339.6679999999999</v>
+        <v>25.713999999999999</v>
       </c>
       <c r="Q10">
-        <v>-299.709</v>
+        <v>-119.44459999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>6642.6580000000004</v>
+        <v>228.494</v>
       </c>
       <c r="U10">
-        <v>1757.6990000000001</v>
+        <v>24.265999999999998</v>
       </c>
       <c r="V10">
-        <v>490.899</v>
+        <v>-55.255200000000002</v>
       </c>
       <c r="W10">
-        <v>-275.47500000000002</v>
+        <v>-4.9215999999999998</v>
       </c>
       <c r="X10">
-        <v>-313.14</v>
+        <v>-28.2118</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-349.74200000000002</v>
+        <v>-6.4523999999999999</v>
       </c>
       <c r="AA10">
-        <v>391.60399999999998</v>
+        <v>-1.9518</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>333.66899999999998</v>
+        <v>13.526</v>
       </c>
       <c r="D11">
-        <v>4707.7889999999998</v>
+        <v>314.91199999999998</v>
       </c>
       <c r="E11">
-        <v>656.524</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>650.15499999999997</v>
+        <v>21.648</v>
       </c>
       <c r="G11">
-        <v>4763.3100000000004</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>10696.172</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1339.4190000000001</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1286.1130000000001</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1630,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1766.954</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3767.125</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1286.1130000000001</v>
+        <v>25.713999999999999</v>
       </c>
       <c r="Q11">
-        <v>114.74299999999999</v>
+        <v>4.04</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6929.0469999999996</v>
+        <v>228.494</v>
       </c>
       <c r="U11">
-        <v>1872.442</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>248.56299999999999</v>
+        <v>-7.4909999999999997</v>
       </c>
       <c r="W11">
-        <v>-102.163</v>
+        <v>-1.7030000000000001</v>
       </c>
       <c r="X11">
-        <v>-29.175000000000001</v>
+        <v>7.7919999999999998</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-34.970999999999997</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="AA11">
-        <v>333.66899999999998</v>
+        <v>13.526</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>256.98099999999999</v>
+        <v>16.058</v>
       </c>
       <c r="D12">
-        <v>5298.848</v>
+        <v>323.28699999999998</v>
       </c>
       <c r="E12">
-        <v>770.80499999999995</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>564.49800000000005</v>
+        <v>24.701000000000001</v>
       </c>
       <c r="G12">
-        <v>4448.152</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>10493.933999999999</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1593.37</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>990.23599999999999</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,81 +1716,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1879.691</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3594.556</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>990.23599999999999</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-523.02200000000005</v>
+        <v>0.34</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6899.3779999999997</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1349.42</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>202.952</v>
+        <v>58.591000000000001</v>
       </c>
       <c r="W12">
-        <v>-162.70400000000001</v>
+        <v>-1.7050000000000001</v>
       </c>
       <c r="X12">
-        <v>-649.52599999999995</v>
+        <v>38.198</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>18.879000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AA12">
-        <v>256.98099999999999</v>
+        <v>16.058</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>82.29</v>
+        <v>17.55</v>
       </c>
       <c r="D13">
-        <v>5327.1220000000003</v>
+        <v>415.25700000000001</v>
       </c>
       <c r="E13">
-        <v>755.67200000000003</v>
+        <v>163.11699999999999</v>
       </c>
       <c r="F13">
-        <v>260.81400000000002</v>
+        <v>48.853999999999999</v>
       </c>
       <c r="G13">
-        <v>4410.1350000000002</v>
+        <v>278.75099999999998</v>
       </c>
       <c r="H13">
-        <v>10498.644</v>
+        <v>614.66600000000005</v>
       </c>
       <c r="I13">
-        <v>1615.97</v>
+        <v>218.31100000000001</v>
       </c>
       <c r="J13">
-        <v>1001.86</v>
+        <v>17.143000000000001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1799,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1893.9480000000001</v>
+        <v>286.68099999999998</v>
       </c>
       <c r="O13">
-        <v>3702.4940000000001</v>
+        <v>343.51799999999997</v>
       </c>
       <c r="P13">
-        <v>1001.86</v>
+        <v>40.713999999999999</v>
       </c>
       <c r="Q13">
-        <v>-54.936</v>
+        <v>-11.363</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6796.15</v>
+        <v>271.14800000000002</v>
       </c>
       <c r="U13">
-        <v>1294.4839999999999</v>
+        <v>8.4930000000000003</v>
       </c>
       <c r="V13">
-        <v>350.64800000000002</v>
+        <v>28.922000000000001</v>
       </c>
       <c r="W13">
-        <v>-220.54400000000001</v>
+        <v>-1.706</v>
       </c>
       <c r="X13">
-        <v>-254.54900000000001</v>
+        <v>-36.701999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-24.347999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="AA13">
-        <v>82.29</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>62.902000000000001</v>
+        <v>-1.081</v>
       </c>
       <c r="D14">
-        <v>4826.8010000000004</v>
+        <v>349.78800000000001</v>
       </c>
       <c r="E14">
-        <v>708.80200000000002</v>
+        <v>184.333</v>
       </c>
       <c r="F14">
-        <v>202.01599999999999</v>
+        <v>21.138000000000002</v>
       </c>
       <c r="G14">
-        <v>3896.444</v>
+        <v>328.94099999999997</v>
       </c>
       <c r="H14">
-        <v>10056.739</v>
+        <v>706.55799999999999</v>
       </c>
       <c r="I14">
-        <v>1325.376</v>
+        <v>277.89699999999999</v>
       </c>
       <c r="J14">
-        <v>999.33299999999997</v>
+        <v>8.5709999999999997</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,161 +1882,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1674.49</v>
+        <v>356.08100000000002</v>
       </c>
       <c r="O14">
-        <v>3447.3409999999999</v>
+        <v>423.47399999999999</v>
       </c>
       <c r="P14">
-        <v>999.33299999999997</v>
+        <v>67.141999999999996</v>
       </c>
       <c r="Q14">
-        <v>-354.38099999999997</v>
+        <v>-5.593</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2662</v>
+        <v>735</v>
       </c>
       <c r="T14">
-        <v>6609.3980000000001</v>
+        <v>283.084</v>
       </c>
       <c r="U14">
-        <v>940.10299999999995</v>
+        <v>11.69</v>
       </c>
       <c r="V14">
-        <v>67.010999999999996</v>
+        <v>-9.266</v>
       </c>
       <c r="W14">
-        <v>-160.50899999999999</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-226.785</v>
+        <v>25.175999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-57.668999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>62.902000000000001</v>
+        <v>-1.081</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>152.06100000000001</v>
+        <v>13.962</v>
       </c>
       <c r="D15">
-        <v>4791.0529999999999</v>
+        <v>463.05700000000002</v>
       </c>
       <c r="E15">
-        <v>688.33799999999997</v>
+        <v>205.703</v>
       </c>
       <c r="F15">
-        <v>378.46699999999998</v>
+        <v>49.49</v>
       </c>
       <c r="G15">
-        <v>4185.509</v>
+        <v>334.36399999999998</v>
       </c>
       <c r="H15">
-        <v>10380.558000000001</v>
+        <v>703.93100000000004</v>
       </c>
       <c r="I15">
-        <v>1570.973</v>
+        <v>273.85199999999998</v>
       </c>
       <c r="J15">
-        <v>1024.7339999999999</v>
+        <v>8.5709999999999997</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M15">
-        <v>-402.78800000000001</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1916.51</v>
+        <v>345.11599999999999</v>
       </c>
       <c r="O15">
-        <v>3732.0569999999998</v>
+        <v>406.56099999999998</v>
       </c>
       <c r="P15">
-        <v>1024.7339999999999</v>
+        <v>52.142000000000003</v>
       </c>
       <c r="Q15">
-        <v>134.53200000000001</v>
+        <v>10.571999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6648.5010000000002</v>
+        <v>297.37</v>
       </c>
       <c r="U15">
-        <v>1074.635</v>
+        <v>22.262</v>
       </c>
       <c r="V15">
-        <v>394.92899999999997</v>
+        <v>37.331000000000003</v>
       </c>
       <c r="W15">
-        <v>-158.614</v>
+        <v>-1.7070000000000001</v>
       </c>
       <c r="X15">
-        <v>-147.34800000000001</v>
+        <v>-15.863</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>11.231999999999999</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="AA15">
-        <v>152.06100000000001</v>
+        <v>13.962</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>176.429</v>
+        <v>51.006999999999998</v>
       </c>
       <c r="D16">
-        <v>5372.6</v>
+        <v>568.73500000000001</v>
       </c>
       <c r="E16">
-        <v>780.18</v>
+        <v>257.363</v>
       </c>
       <c r="F16">
-        <v>426.1</v>
+        <v>103.146</v>
       </c>
       <c r="G16">
-        <v>4236.1310000000003</v>
+        <v>475.47</v>
       </c>
       <c r="H16">
-        <v>10458.383</v>
+        <v>817.03700000000003</v>
       </c>
       <c r="I16">
-        <v>1624.953</v>
+        <v>338.67200000000003</v>
       </c>
       <c r="J16">
-        <v>1029.5139999999999</v>
+        <v>8.5709999999999997</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2048,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1967.6949999999999</v>
+        <v>406.87599999999998</v>
       </c>
       <c r="O16">
-        <v>3791.7640000000001</v>
+        <v>469.68099999999998</v>
       </c>
       <c r="P16">
-        <v>1029.5139999999999</v>
+        <v>17.141999999999999</v>
       </c>
       <c r="Q16">
-        <v>43.667000000000002</v>
+        <v>42.136000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6666.6189999999997</v>
+        <v>347.35599999999999</v>
       </c>
       <c r="U16">
-        <v>1118.3019999999999</v>
+        <v>64.397999999999996</v>
       </c>
       <c r="V16">
-        <v>326.55</v>
+        <v>86.457999999999998</v>
       </c>
       <c r="W16">
-        <v>-164.47399999999999</v>
+        <v>-2.06</v>
       </c>
       <c r="X16">
-        <v>-201.708</v>
+        <v>-38.975000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>39.313000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>176.429</v>
+        <v>51.006999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>175.006</v>
+        <v>11.525</v>
       </c>
       <c r="D17">
-        <v>5317.5550000000003</v>
+        <v>597.44799999999998</v>
       </c>
       <c r="E17">
-        <v>690.25099999999998</v>
+        <v>299.85500000000002</v>
       </c>
       <c r="F17">
-        <v>410.70499999999998</v>
+        <v>43.055999999999997</v>
       </c>
       <c r="G17">
-        <v>3893.7330000000002</v>
+        <v>604.25900000000001</v>
       </c>
       <c r="H17">
-        <v>10181.77</v>
+        <v>1005.114</v>
       </c>
       <c r="I17">
-        <v>1441.115</v>
+        <v>380.58499999999998</v>
       </c>
       <c r="J17">
-        <v>1040.627</v>
+        <v>33.570999999999998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2131,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1786.749</v>
+        <v>452.47699999999998</v>
       </c>
       <c r="O17">
-        <v>3620.922</v>
+        <v>517.048</v>
       </c>
       <c r="P17">
-        <v>1040.627</v>
+        <v>42.142000000000003</v>
       </c>
       <c r="Q17">
-        <v>-262.27600000000001</v>
+        <v>93.102999999999994</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6560.848</v>
+        <v>488.06599999999997</v>
       </c>
       <c r="U17">
-        <v>856.02599999999995</v>
+        <v>157.501</v>
       </c>
       <c r="V17">
-        <v>84.453999999999994</v>
+        <v>36.591999999999999</v>
       </c>
       <c r="W17">
-        <v>-162.678</v>
+        <v>-2.0409999999999999</v>
       </c>
       <c r="X17">
-        <v>-293.09800000000001</v>
+        <v>9.5310000000000006</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>56.021000000000001</v>
+        <v>55.776000000000003</v>
       </c>
       <c r="AA17">
-        <v>175.006</v>
+        <v>11.525</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>-222.20400000000001</v>
+        <v>7.3849999999999998</v>
       </c>
       <c r="D18">
-        <v>4283.1189999999997</v>
+        <v>617.13300000000004</v>
       </c>
       <c r="E18">
-        <v>589.90499999999997</v>
+        <v>281.73</v>
       </c>
       <c r="F18">
-        <v>-221.74799999999999</v>
+        <v>44.292999999999999</v>
       </c>
       <c r="G18">
-        <v>2782.998</v>
+        <v>572.90599999999995</v>
       </c>
       <c r="H18">
-        <v>9230.0470000000005</v>
+        <v>982.71299999999997</v>
       </c>
       <c r="I18">
-        <v>1108.1379999999999</v>
+        <v>377.71699999999998</v>
       </c>
       <c r="J18">
-        <v>1055.3620000000001</v>
+        <v>25</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2214,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1233.9939999999999</v>
+        <v>424.26400000000001</v>
       </c>
       <c r="O18">
-        <v>3129.328</v>
+        <v>485.24700000000001</v>
       </c>
       <c r="P18">
-        <v>1055.3620000000001</v>
+        <v>33.572000000000003</v>
       </c>
       <c r="Q18">
-        <v>-288.041</v>
+        <v>-90.040999999999997</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2686</v>
+        <v>845</v>
       </c>
       <c r="T18">
-        <v>6100.7190000000001</v>
+        <v>497.46600000000001</v>
       </c>
       <c r="U18">
-        <v>567.98500000000001</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="V18">
-        <v>-47.337000000000003</v>
+        <v>4.2229999999999999</v>
       </c>
       <c r="W18">
-        <v>-161.43100000000001</v>
+        <v>-2.4729999999999999</v>
       </c>
       <c r="X18">
-        <v>-196.238</v>
+        <v>130.476</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>149.30000000000001</v>
+        <v>-214.65199999999999</v>
       </c>
       <c r="AA18">
-        <v>-222.20400000000001</v>
+        <v>7.3849999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>226.876</v>
+        <v>13.634</v>
       </c>
       <c r="D19">
-        <v>3006.6260000000002</v>
+        <v>624.71900000000005</v>
       </c>
       <c r="E19">
-        <v>526.85299999999995</v>
+        <v>392.78300000000002</v>
       </c>
       <c r="F19">
-        <v>498.20299999999997</v>
+        <v>49.829000000000001</v>
       </c>
       <c r="G19">
-        <v>2715.7779999999998</v>
+        <v>694.8</v>
       </c>
       <c r="H19">
-        <v>9262.1270000000004</v>
+        <v>1267</v>
       </c>
       <c r="I19">
-        <v>930.90899999999999</v>
+        <v>507.69299999999998</v>
       </c>
       <c r="J19">
-        <v>1078.3109999999999</v>
+        <v>147.05500000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M19">
-        <v>-130.5</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1172.403</v>
+        <v>545.34199999999998</v>
       </c>
       <c r="O19">
-        <v>3062.6239999999998</v>
+        <v>727.32799999999997</v>
       </c>
       <c r="P19">
-        <v>1078.3109999999999</v>
+        <v>155.62700000000001</v>
       </c>
       <c r="Q19">
-        <v>26.106999999999999</v>
+        <v>-4.0209999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6199.5029999999997</v>
+        <v>539.67200000000003</v>
       </c>
       <c r="U19">
-        <v>594.09199999999998</v>
+        <v>63.439</v>
       </c>
       <c r="V19">
-        <v>246.892</v>
+        <v>6.8070000000000004</v>
       </c>
       <c r="W19">
-        <v>-62.335000000000001</v>
+        <v>-2.52</v>
       </c>
       <c r="X19">
-        <v>-108.688</v>
+        <v>120.925</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>59.707999999999998</v>
+        <v>21.481000000000002</v>
       </c>
       <c r="AA19">
-        <v>226.876</v>
+        <v>13.634</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>360.82400000000001</v>
+        <v>52.423999999999999</v>
       </c>
       <c r="D20">
-        <v>3701.9119999999998</v>
+        <v>728.65499999999997</v>
       </c>
       <c r="E20">
-        <v>626.10699999999997</v>
+        <v>406.005</v>
       </c>
       <c r="F20">
-        <v>703.75199999999995</v>
+        <v>110.45399999999999</v>
       </c>
       <c r="G20">
-        <v>2519.5390000000002</v>
+        <v>760.76800000000003</v>
       </c>
       <c r="H20">
-        <v>9145.2860000000001</v>
+        <v>1320.6769999999999</v>
       </c>
       <c r="I20">
-        <v>1050.3920000000001</v>
+        <v>477.88299999999998</v>
       </c>
       <c r="J20">
-        <v>933.86900000000003</v>
+        <v>182.95699999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2380,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1240.491</v>
+        <v>539.92200000000003</v>
       </c>
       <c r="O20">
-        <v>2977.3310000000001</v>
+        <v>757.69299999999998</v>
       </c>
       <c r="P20">
-        <v>933.86900000000003</v>
+        <v>191.529</v>
       </c>
       <c r="Q20">
-        <v>-360.733</v>
+        <v>48.161999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6167.9549999999999</v>
+        <v>562.98400000000004</v>
       </c>
       <c r="U20">
-        <v>233.35900000000001</v>
+        <v>111.601</v>
       </c>
       <c r="V20">
-        <v>323.048</v>
+        <v>65.673000000000002</v>
       </c>
       <c r="W20">
-        <v>-62.856999999999999</v>
+        <v>-2.5369999999999999</v>
       </c>
       <c r="X20">
-        <v>-562.49900000000002</v>
+        <v>1.159</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>21.594000000000001</v>
+        <v>-2.9</v>
       </c>
       <c r="AA20">
-        <v>360.82400000000001</v>
+        <v>52.423999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>196.322</v>
+        <v>61.719000000000001</v>
       </c>
       <c r="D21">
-        <v>3585.8229999999999</v>
+        <v>880.52</v>
       </c>
       <c r="E21">
-        <v>522.34900000000005</v>
+        <v>481.27699999999999</v>
       </c>
       <c r="F21">
-        <v>441.11500000000001</v>
+        <v>112.947</v>
       </c>
       <c r="G21">
-        <v>2307.6729999999998</v>
+        <v>872.23900000000003</v>
       </c>
       <c r="H21">
-        <v>9071.6370000000006</v>
+        <v>1197.2570000000001</v>
       </c>
       <c r="I21">
-        <v>926.625</v>
+        <v>553.09699999999998</v>
       </c>
       <c r="J21">
-        <v>982.846</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2463,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1092.453</v>
+        <v>616.95899999999995</v>
       </c>
       <c r="O21">
-        <v>2889.953</v>
+        <v>808.23599999999999</v>
       </c>
       <c r="P21">
-        <v>982.846</v>
+        <v>8.5719999999999992</v>
       </c>
       <c r="Q21">
-        <v>6.3719999999999999</v>
+        <v>-35.292000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6181.6840000000002</v>
+        <v>389.02100000000002</v>
       </c>
       <c r="U21">
-        <v>239.73099999999999</v>
+        <v>76.308999999999997</v>
       </c>
       <c r="V21">
-        <v>333.40100000000001</v>
+        <v>90.396000000000001</v>
       </c>
       <c r="W21">
-        <v>-62.18</v>
+        <v>-3.1749999999999998</v>
       </c>
       <c r="X21">
-        <v>-134.96799999999999</v>
+        <v>-12.645</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-48.676000000000002</v>
+        <v>-185.03200000000001</v>
       </c>
       <c r="AA21">
-        <v>196.322</v>
+        <v>61.719000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-43.920999999999999</v>
+        <v>39.881</v>
       </c>
       <c r="D22">
-        <v>2943.5590000000002</v>
+        <v>812.41800000000001</v>
       </c>
       <c r="E22">
-        <v>351.97800000000001</v>
+        <v>400.47</v>
       </c>
       <c r="F22">
-        <v>68.28</v>
+        <v>82.22</v>
       </c>
       <c r="G22">
-        <v>1448.0650000000001</v>
+        <v>789.53599999999994</v>
       </c>
       <c r="H22">
-        <v>8388.2990000000009</v>
+        <v>1142.9000000000001</v>
       </c>
       <c r="I22">
-        <v>716.49</v>
+        <v>518.58399999999995</v>
       </c>
       <c r="J22">
-        <v>1040.04</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2546,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>860.61500000000001</v>
+        <v>579.43299999999999</v>
       </c>
       <c r="O22">
-        <v>2578.5259999999998</v>
+        <v>765.54899999999998</v>
       </c>
       <c r="P22">
-        <v>1040.04</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>-173.19800000000001</v>
+        <v>-27.245000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2704</v>
+        <v>881</v>
       </c>
       <c r="T22">
-        <v>5809.7730000000001</v>
+        <v>377.351</v>
       </c>
       <c r="U22">
-        <v>66.533000000000001</v>
+        <v>49.064</v>
       </c>
       <c r="V22">
-        <v>76.284999999999997</v>
+        <v>88.358000000000004</v>
       </c>
       <c r="W22">
-        <v>-59.536000000000001</v>
+        <v>-3.0110000000000001</v>
       </c>
       <c r="X22">
-        <v>-293.17500000000001</v>
+        <v>-58.933999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>242.517</v>
+        <v>-8.6150000000000002</v>
       </c>
       <c r="AA22">
-        <v>-43.920999999999999</v>
+        <v>39.881</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>21.253</v>
+        <v>46.804000000000002</v>
       </c>
       <c r="D23">
-        <v>2018.7239999999999</v>
+        <v>791.59400000000005</v>
       </c>
       <c r="E23">
-        <v>430.91399999999999</v>
+        <v>372.19499999999999</v>
       </c>
       <c r="F23">
-        <v>197.09899999999999</v>
+        <v>63.642000000000003</v>
       </c>
       <c r="G23">
-        <v>1499.27</v>
+        <v>733.31200000000001</v>
       </c>
       <c r="H23">
-        <v>8594.2870000000003</v>
+        <v>1109.509</v>
       </c>
       <c r="I23">
-        <v>731.27099999999996</v>
+        <v>485.012</v>
       </c>
       <c r="J23">
-        <v>1308.1679999999999</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2626,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-823.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>885.60799999999995</v>
+        <v>551.80999999999995</v>
       </c>
       <c r="O23">
-        <v>2951.0889999999999</v>
+        <v>743.16800000000001</v>
       </c>
       <c r="P23">
-        <v>1308.1679999999999</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>44.488</v>
+        <v>45.546999999999997</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5643.1980000000003</v>
+        <v>366.34100000000001</v>
       </c>
       <c r="U23">
-        <v>111.021</v>
+        <v>94.611000000000004</v>
       </c>
       <c r="V23">
-        <v>6.6360000000000001</v>
+        <v>-18.34</v>
       </c>
       <c r="W23">
-        <v>-58.601999999999997</v>
+        <v>-2.9569999999999999</v>
       </c>
       <c r="X23">
-        <v>43.045000000000002</v>
+        <v>-56.000999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>144.12200000000001</v>
+        <v>103.251</v>
       </c>
       <c r="AA23">
-        <v>21.253</v>
+        <v>46.804000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>-409.36799999999999</v>
+        <v>93.100999999999999</v>
       </c>
       <c r="D24">
-        <v>2714.6379999999999</v>
+        <v>1120.8399999999999</v>
       </c>
       <c r="E24">
-        <v>481.50799999999998</v>
+        <v>461.82</v>
       </c>
       <c r="F24">
-        <v>353.62</v>
+        <v>163.739</v>
       </c>
       <c r="G24">
-        <v>2118.098</v>
+        <v>861.79899999999998</v>
       </c>
       <c r="H24">
-        <v>8659.7170000000006</v>
+        <v>1257.3420000000001</v>
       </c>
       <c r="I24">
-        <v>913.45600000000002</v>
+        <v>556.56899999999996</v>
       </c>
       <c r="J24">
-        <v>1678.123</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2712,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1048.5540000000001</v>
+        <v>626.37300000000005</v>
       </c>
       <c r="O24">
-        <v>3461.8069999999998</v>
+        <v>822.99699999999996</v>
       </c>
       <c r="P24">
-        <v>1678.123</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>340.96899999999999</v>
+        <v>23.245000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5197.91</v>
+        <v>434.34500000000003</v>
       </c>
       <c r="U24">
-        <v>451.99</v>
+        <v>117.85599999999999</v>
       </c>
       <c r="V24">
-        <v>303.69</v>
+        <v>98.135000000000005</v>
       </c>
       <c r="W24">
-        <v>-58.192999999999998</v>
+        <v>-2.9089999999999998</v>
       </c>
       <c r="X24">
-        <v>301.42200000000003</v>
+        <v>-31.13</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-123.821</v>
+        <v>-8.5009999999999994</v>
       </c>
       <c r="AA24">
-        <v>-409.36799999999999</v>
+        <v>93.100999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>74.497</v>
+        <v>79.001999999999995</v>
       </c>
       <c r="D25">
-        <v>2847.27</v>
+        <v>1172.693</v>
       </c>
       <c r="E25">
-        <v>395.93700000000001</v>
+        <v>397.25099999999998</v>
       </c>
       <c r="F25">
-        <v>248.88900000000001</v>
+        <v>139.238</v>
       </c>
       <c r="G25">
-        <v>2031.4659999999999</v>
+        <v>820.51400000000001</v>
       </c>
       <c r="H25">
-        <v>8596.4480000000003</v>
+        <v>1228.7919999999999</v>
       </c>
       <c r="I25">
-        <v>803.03099999999995</v>
+        <v>516.80999999999995</v>
       </c>
       <c r="J25">
-        <v>1665.6020000000001</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2795,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>966.81799999999998</v>
+        <v>566.553</v>
       </c>
       <c r="O25">
-        <v>3376.047</v>
+        <v>766.05399999999997</v>
       </c>
       <c r="P25">
-        <v>1665.6020000000001</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-85.668999999999997</v>
+        <v>76.772000000000006</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5220.4009999999998</v>
+        <v>462.738</v>
       </c>
       <c r="U25">
-        <v>366.32100000000003</v>
+        <v>194.62799999999999</v>
       </c>
       <c r="V25">
-        <v>133.94800000000001</v>
+        <v>128.476</v>
       </c>
       <c r="W25">
-        <v>-58.399000000000001</v>
+        <v>-4.609</v>
       </c>
       <c r="X25">
-        <v>-91.799000000000007</v>
+        <v>-48.917999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-30.584</v>
+        <v>18.902000000000001</v>
       </c>
       <c r="AA25">
-        <v>74.497</v>
+        <v>79.001999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>53.164999999999999</v>
+        <v>47.658999999999999</v>
       </c>
       <c r="D26">
-        <v>2955.0680000000002</v>
+        <v>938.09</v>
       </c>
       <c r="E26">
-        <v>479.19900000000001</v>
+        <v>395.92500000000001</v>
       </c>
       <c r="F26">
-        <v>243.26400000000001</v>
+        <v>98.733999999999995</v>
       </c>
       <c r="G26">
-        <v>2851.009</v>
+        <v>799.57399999999996</v>
       </c>
       <c r="H26">
-        <v>9435.6610000000001</v>
+        <v>1237.8689999999999</v>
       </c>
       <c r="I26">
-        <v>935.38699999999994</v>
+        <v>507.56599999999997</v>
       </c>
       <c r="J26">
-        <v>2235.1370000000002</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2878,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1083.229</v>
+        <v>559.39300000000003</v>
       </c>
       <c r="O26">
-        <v>4133.6760000000004</v>
+        <v>771.77499999999998</v>
       </c>
       <c r="P26">
-        <v>2235.1370000000002</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>344.25799999999998</v>
+        <v>-40.511000000000003</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2676</v>
+        <v>859</v>
       </c>
       <c r="T26">
-        <v>5301.9849999999997</v>
+        <v>466.09399999999999</v>
       </c>
       <c r="U26">
-        <v>710.57899999999995</v>
+        <v>154.11699999999999</v>
       </c>
       <c r="V26">
-        <v>162.67400000000001</v>
+        <v>36.911999999999999</v>
       </c>
       <c r="W26">
-        <v>-58.81</v>
+        <v>-4.5270000000000001</v>
       </c>
       <c r="X26">
-        <v>586.02700000000004</v>
+        <v>-39.886000000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-312.37299999999999</v>
+        <v>-6.29</v>
       </c>
       <c r="AA26">
-        <v>53.164999999999999</v>
+        <v>47.658999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>-45.468000000000004</v>
+        <v>67.542000000000002</v>
       </c>
       <c r="D27">
-        <v>3080.4830000000002</v>
+        <v>925.86699999999996</v>
       </c>
       <c r="E27">
-        <v>601.11699999999996</v>
+        <v>359.40199999999999</v>
       </c>
       <c r="F27">
-        <v>119.759</v>
+        <v>124.024</v>
       </c>
       <c r="G27">
-        <v>2168.8389999999999</v>
+        <v>789.65200000000004</v>
       </c>
       <c r="H27">
-        <v>9542.3520000000008</v>
+        <v>1247.0419999999999</v>
       </c>
       <c r="I27">
-        <v>953.928</v>
+        <v>481.02300000000002</v>
       </c>
       <c r="J27">
-        <v>2231.5419999999999</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2958,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-421.75</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1141.6559999999999</v>
+        <v>532.36900000000003</v>
       </c>
       <c r="O27">
-        <v>4319.1580000000004</v>
+        <v>747.81299999999999</v>
       </c>
       <c r="P27">
-        <v>2231.5419999999999</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-581.06700000000001</v>
+        <v>-2.9380000000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5223.1940000000004</v>
+        <v>499.22899999999998</v>
       </c>
       <c r="U27">
-        <v>129.512</v>
+        <v>151.179</v>
       </c>
       <c r="V27">
-        <v>-39.384</v>
+        <v>86.301000000000002</v>
       </c>
       <c r="W27">
-        <v>-58.991999999999997</v>
+        <v>-4.4770000000000003</v>
       </c>
       <c r="X27">
-        <v>-68.363</v>
+        <v>-35.463999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>424.15100000000001</v>
+        <v>-27.024999999999999</v>
       </c>
       <c r="AA27">
-        <v>-45.468000000000004</v>
+        <v>67.542000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>57.767000000000003</v>
+        <v>158.62700000000001</v>
       </c>
       <c r="D28">
-        <v>3458.864</v>
+        <v>1216.9970000000001</v>
       </c>
       <c r="E28">
-        <v>602.35</v>
+        <v>402.23500000000001</v>
       </c>
       <c r="F28">
-        <v>305.16199999999998</v>
+        <v>268.64400000000001</v>
       </c>
       <c r="G28">
-        <v>2293.7629999999999</v>
+        <v>920.09699999999998</v>
       </c>
       <c r="H28">
-        <v>9643.0349999999999</v>
+        <v>1457.4770000000001</v>
       </c>
       <c r="I28">
-        <v>1009.135</v>
+        <v>516.07100000000003</v>
       </c>
       <c r="J28">
-        <v>2227.951</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3044,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1220.4480000000001</v>
+        <v>598.83799999999997</v>
       </c>
       <c r="O28">
-        <v>4400.951</v>
+        <v>817.47699999999998</v>
       </c>
       <c r="P28">
-        <v>2227.951</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>330.81400000000002</v>
+        <v>-44.042000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5242.0839999999998</v>
+        <v>640</v>
       </c>
       <c r="U28">
-        <v>460.32600000000002</v>
+        <v>107.137</v>
       </c>
       <c r="V28">
-        <v>512.78200000000004</v>
+        <v>194.28299999999999</v>
       </c>
       <c r="W28">
-        <v>-58.762</v>
+        <v>-5.5730000000000004</v>
       </c>
       <c r="X28">
-        <v>-75.102999999999994</v>
+        <v>-17.678999999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-174.86500000000001</v>
       </c>
       <c r="AA28">
-        <v>57.767000000000003</v>
+        <v>158.62700000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>272.01400000000001</v>
+        <v>58.125999999999998</v>
       </c>
       <c r="D29">
-        <v>3719.2469999999998</v>
+        <v>1208.671</v>
       </c>
       <c r="E29">
-        <v>714.34799999999996</v>
+        <v>581.93700000000001</v>
       </c>
       <c r="F29">
-        <v>619.54899999999998</v>
+        <v>97.015000000000001</v>
       </c>
       <c r="G29">
-        <v>2797.0610000000001</v>
+        <v>1012.298</v>
       </c>
       <c r="H29">
-        <v>10148.355</v>
+        <v>1611.713</v>
       </c>
       <c r="I29">
-        <v>1101.6679999999999</v>
+        <v>681.64800000000002</v>
       </c>
       <c r="J29">
-        <v>2236.5140000000001</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3127,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1401.0150000000001</v>
+        <v>733.1</v>
       </c>
       <c r="O29">
-        <v>4682.5780000000004</v>
+        <v>946.63800000000003</v>
       </c>
       <c r="P29">
-        <v>2236.5140000000001</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>170.416</v>
+        <v>-68.102999999999994</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5465.777</v>
+        <v>665.07500000000005</v>
       </c>
       <c r="U29">
-        <v>630.74199999999996</v>
+        <v>39.033999999999999</v>
       </c>
       <c r="V29">
-        <v>312.01499999999999</v>
+        <v>-23.884</v>
       </c>
       <c r="W29">
-        <v>-58.765000000000001</v>
+        <v>-6.601</v>
       </c>
       <c r="X29">
-        <v>-86.986000000000004</v>
+        <v>-38.061</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>34.526000000000003</v>
       </c>
       <c r="AA29">
-        <v>272.01400000000001</v>
+        <v>58.125999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>521.08199999999999</v>
+        <v>49.832999999999998</v>
       </c>
       <c r="D30">
-        <v>3992.7049999999999</v>
+        <v>1440.2070000000001</v>
       </c>
       <c r="E30">
-        <v>720.73299999999995</v>
+        <v>608.61800000000005</v>
       </c>
       <c r="F30">
-        <v>550.97199999999998</v>
+        <v>89.29</v>
       </c>
       <c r="G30">
-        <v>3062.828</v>
+        <v>1034.6210000000001</v>
       </c>
       <c r="H30">
-        <v>10692.154</v>
+        <v>1663.9449999999999</v>
       </c>
       <c r="I30">
-        <v>1220.7950000000001</v>
+        <v>782.976</v>
       </c>
       <c r="J30">
-        <v>2498.9929999999999</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3210,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1422.71</v>
+        <v>818.08</v>
       </c>
       <c r="O30">
-        <v>4795.2139999999999</v>
+        <v>1061.818</v>
       </c>
       <c r="P30">
-        <v>2498.9929999999999</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.4999999999999999E-2</v>
+        <v>55.335000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>3522</v>
+        <v>909</v>
       </c>
       <c r="T30">
-        <v>5896.94</v>
+        <v>602.12699999999995</v>
       </c>
       <c r="U30">
-        <v>630.75699999999995</v>
+        <v>94.369</v>
       </c>
       <c r="V30">
-        <v>165.977</v>
+        <v>166.03700000000001</v>
       </c>
       <c r="W30">
-        <v>-58.988999999999997</v>
+        <v>-6.5570000000000004</v>
       </c>
       <c r="X30">
-        <v>157.822</v>
+        <v>-98.224000000000004</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>35.564999999999998</v>
       </c>
       <c r="AA30">
-        <v>521.08199999999999</v>
+        <v>49.832999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>268.09100000000001</v>
+        <v>8.6489999999999991</v>
       </c>
       <c r="D31">
-        <v>4128.4269999999997</v>
+        <v>1479.9839999999999</v>
       </c>
       <c r="E31">
-        <v>842.798</v>
+        <v>669.95899999999995</v>
       </c>
       <c r="F31">
-        <v>564.85199999999998</v>
+        <v>35.838999999999999</v>
       </c>
       <c r="G31">
-        <v>3292.913</v>
+        <v>1213.7570000000001</v>
       </c>
       <c r="H31">
-        <v>10912.074000000001</v>
+        <v>2276.7220000000002</v>
       </c>
       <c r="I31">
-        <v>1194.0820000000001</v>
+        <v>914.322</v>
       </c>
       <c r="J31">
-        <v>2382.8739999999998</v>
+        <v>341.416</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3290,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-343.5</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1465.0060000000001</v>
+        <v>958.49800000000005</v>
       </c>
       <c r="O31">
-        <v>4754.1620000000003</v>
+        <v>1378.673</v>
       </c>
       <c r="P31">
-        <v>2382.8739999999998</v>
+        <v>351.416</v>
       </c>
       <c r="Q31">
-        <v>150.71</v>
+        <v>86.182000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6157.9120000000003</v>
+        <v>898.04899999999998</v>
       </c>
       <c r="U31">
-        <v>781.46699999999998</v>
+        <v>180.55099999999999</v>
       </c>
       <c r="V31">
-        <v>333.78399999999999</v>
+        <v>98.85</v>
       </c>
       <c r="W31">
-        <v>-58.856000000000002</v>
+        <v>-6.41</v>
       </c>
       <c r="X31">
-        <v>-115.711</v>
+        <v>-96.126999999999995</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-21.785</v>
       </c>
       <c r="AA31">
-        <v>268.09100000000001</v>
+        <v>8.6489999999999991</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>345.50700000000001</v>
+        <v>11.452</v>
       </c>
       <c r="D32">
-        <v>4471.2359999999999</v>
+        <v>1743.8219999999999</v>
       </c>
       <c r="E32">
-        <v>825.25099999999998</v>
+        <v>841.52700000000004</v>
       </c>
       <c r="F32">
-        <v>711.33100000000002</v>
+        <v>49.097000000000001</v>
       </c>
       <c r="G32">
-        <v>3702.4720000000002</v>
+        <v>1291.856</v>
       </c>
       <c r="H32">
-        <v>11281.352000000001</v>
+        <v>2442.8710000000001</v>
       </c>
       <c r="I32">
-        <v>1243.289</v>
+        <v>1079.193</v>
       </c>
       <c r="J32">
-        <v>2387.759</v>
+        <v>339.90899999999999</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3376,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1555.847</v>
+        <v>1135.251</v>
       </c>
       <c r="O32">
-        <v>4877.7089999999998</v>
+        <v>1557.4110000000001</v>
       </c>
       <c r="P32">
-        <v>2387.759</v>
+        <v>359.90899999999999</v>
       </c>
       <c r="Q32">
-        <v>198.405</v>
+        <v>-25.78</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6403.643</v>
+        <v>885.46</v>
       </c>
       <c r="U32">
-        <v>979.87199999999996</v>
+        <v>154.77099999999999</v>
       </c>
       <c r="V32">
-        <v>394.36099999999999</v>
+        <v>15.763</v>
       </c>
       <c r="W32">
-        <v>-58.643999999999998</v>
+        <v>-7.6449999999999996</v>
       </c>
       <c r="X32">
-        <v>-114.004</v>
+        <v>-29.568000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>114.048</v>
       </c>
       <c r="AA32">
-        <v>345.50700000000001</v>
+        <v>11.452</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
-        <v>342.46600000000001</v>
+        <v>49.899000000000001</v>
       </c>
       <c r="D33">
-        <v>4770.799</v>
+        <v>1719.92</v>
       </c>
       <c r="E33">
-        <v>847.596</v>
+        <v>629.19600000000003</v>
       </c>
       <c r="F33">
-        <v>683.53200000000004</v>
+        <v>114.014</v>
       </c>
       <c r="G33">
-        <v>3857.7249999999999</v>
+        <v>999.97400000000005</v>
       </c>
       <c r="H33">
-        <v>11495.126</v>
+        <v>2240.4229999999998</v>
       </c>
       <c r="I33">
-        <v>1176.4169999999999</v>
+        <v>848.21600000000001</v>
       </c>
       <c r="J33">
-        <v>2409.1480000000001</v>
+        <v>340.851</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3459,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1540.635</v>
+        <v>914.05399999999997</v>
       </c>
       <c r="O33">
-        <v>4931.6139999999996</v>
+        <v>1326.155</v>
       </c>
       <c r="P33">
-        <v>2409.1480000000001</v>
+        <v>364.851</v>
       </c>
       <c r="Q33">
-        <v>95.805000000000007</v>
+        <v>-18.763000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6563.5119999999997</v>
+        <v>914.26800000000003</v>
       </c>
       <c r="U33">
-        <v>1075.6769999999999</v>
+        <v>136.00800000000001</v>
       </c>
       <c r="V33">
-        <v>401.75200000000001</v>
+        <v>46.081000000000003</v>
       </c>
       <c r="W33">
-        <v>-58.420999999999999</v>
+        <v>-7.53</v>
       </c>
       <c r="X33">
-        <v>-193.70099999999999</v>
+        <v>-18.768000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>46.573</v>
       </c>
       <c r="AA33">
-        <v>342.46600000000001</v>
+        <v>49.899000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>141.89599999999999</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>4344.2039999999997</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>671.70100000000002</v>
+        <v>288.61900000000003</v>
       </c>
       <c r="F34">
-        <v>417.32600000000002</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3296.3789999999999</v>
+        <v>530.62300000000005</v>
       </c>
       <c r="H34">
-        <v>10994.601000000001</v>
+        <v>1874.2249999999999</v>
       </c>
       <c r="I34">
-        <v>872.62699999999995</v>
+        <v>390.43799999999999</v>
       </c>
       <c r="J34">
-        <v>2411.54</v>
+        <v>341.91399999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3542,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1168.155</v>
+        <v>462.15800000000002</v>
       </c>
       <c r="O34">
-        <v>4535.5420000000004</v>
+        <v>937.89300000000003</v>
       </c>
       <c r="P34">
-        <v>2411.54</v>
+        <v>370.91399999999999</v>
       </c>
       <c r="Q34">
-        <v>79.075000000000003</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3622</v>
+        <v>978</v>
       </c>
       <c r="T34">
-        <v>6459.0590000000002</v>
+        <v>936.33199999999999</v>
       </c>
       <c r="U34">
-        <v>1154.752</v>
+        <v>39.244</v>
       </c>
       <c r="V34">
-        <v>424.51900000000001</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-57.622999999999998</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-240.91200000000001</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,122 +3581,122 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>141.89599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>253.05500000000001</v>
+        <v>21.945</v>
       </c>
       <c r="D35">
-        <v>3897.2469999999998</v>
+        <v>648.03</v>
       </c>
       <c r="E35">
-        <v>1041.454</v>
+        <v>303.68700000000001</v>
       </c>
       <c r="F35">
-        <v>598.79600000000005</v>
+        <v>69.628</v>
       </c>
       <c r="G35">
-        <v>3321.3380000000002</v>
+        <v>545.19799999999998</v>
       </c>
       <c r="H35">
-        <v>12123.43</v>
+        <v>2013.867</v>
       </c>
       <c r="I35">
-        <v>1158.759</v>
+        <v>415.59199999999998</v>
       </c>
       <c r="J35">
-        <v>2430.9340000000002</v>
+        <v>411.48500000000001</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-85.408000000000001</v>
+        <v>-13</v>
       </c>
       <c r="N35">
-        <v>1669.2850000000001</v>
+        <v>512.57899999999995</v>
       </c>
       <c r="O35">
-        <v>5528.8559999999998</v>
+        <v>1062.7829999999999</v>
       </c>
       <c r="P35">
-        <v>2902.66</v>
+        <v>466.48500000000001</v>
       </c>
       <c r="Q35">
-        <v>-658.61300000000006</v>
+        <v>13.073</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6594.5739999999996</v>
+        <v>951.08399999999995</v>
       </c>
       <c r="U35">
-        <v>496.13900000000001</v>
+        <v>53.878</v>
       </c>
       <c r="V35">
-        <v>216.816</v>
+        <v>-2.3149999999999999</v>
       </c>
       <c r="W35">
-        <v>-56.848999999999997</v>
+        <v>-7.5019999999999998</v>
       </c>
       <c r="X35">
-        <v>-150.12799999999999</v>
+        <v>85.727000000000004</v>
       </c>
       <c r="Y35">
-        <v>346.81599999999997</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>28.888999999999999</v>
       </c>
       <c r="AA35">
-        <v>253.05500000000001</v>
+        <v>21.945</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36">
-        <v>196.91499999999999</v>
+        <v>14.605</v>
       </c>
       <c r="D36">
-        <v>4782.6149999999998</v>
+        <v>1035.778</v>
       </c>
       <c r="E36">
-        <v>799.36800000000005</v>
+        <v>604.70000000000005</v>
       </c>
       <c r="F36">
-        <v>696.678</v>
+        <v>77.799000000000007</v>
       </c>
       <c r="G36">
-        <v>3466.3969999999999</v>
+        <v>1010.457</v>
       </c>
       <c r="H36">
-        <v>12104.491</v>
+        <v>2621.4409999999998</v>
       </c>
       <c r="I36">
-        <v>1199.3109999999999</v>
+        <v>804.61900000000003</v>
       </c>
       <c r="J36">
-        <v>2430.8319999999999</v>
+        <v>578.02</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3708,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1664.027</v>
+        <v>851.09</v>
       </c>
       <c r="O36">
-        <v>5573.4920000000002</v>
+        <v>1594.8720000000001</v>
       </c>
       <c r="P36">
-        <v>2923.4870000000001</v>
+        <v>578.02</v>
       </c>
       <c r="Q36">
-        <v>418.505</v>
+        <v>54.81</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6530.9989999999998</v>
+        <v>1026.569</v>
       </c>
       <c r="U36">
-        <v>914.64400000000001</v>
+        <v>108.688</v>
       </c>
       <c r="V36">
-        <v>752.73400000000004</v>
+        <v>143.86500000000001</v>
       </c>
       <c r="W36">
-        <v>-56.658999999999999</v>
+        <v>-7.52</v>
       </c>
       <c r="X36">
-        <v>-279.73599999999999</v>
+        <v>152.92400000000001</v>
       </c>
       <c r="Y36">
-        <v>362.21499999999997</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>196.91499999999999</v>
+        <v>14.605</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>261.81299999999999</v>
+        <v>23.484000000000002</v>
       </c>
       <c r="D37">
-        <v>4424.8280000000004</v>
+        <v>1488.491</v>
       </c>
       <c r="E37">
-        <v>839.83100000000002</v>
+        <v>615.83199999999999</v>
       </c>
       <c r="F37">
-        <v>641.42100000000005</v>
+        <v>96.335999999999999</v>
       </c>
       <c r="G37">
-        <v>3532.7660000000001</v>
+        <v>1045.8130000000001</v>
       </c>
       <c r="H37">
-        <v>12191.328</v>
+        <v>2698.098</v>
       </c>
       <c r="I37">
-        <v>1229.7670000000001</v>
+        <v>820.63499999999999</v>
       </c>
       <c r="J37">
-        <v>2425.2339999999999</v>
+        <v>619.05799999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3791,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1705.346</v>
+        <v>867.96600000000001</v>
       </c>
       <c r="O37">
-        <v>5649.9650000000001</v>
+        <v>1650.742</v>
       </c>
       <c r="P37">
-        <v>2923.3580000000002</v>
+        <v>619.05799999999999</v>
       </c>
       <c r="Q37">
-        <v>67.212000000000003</v>
+        <v>-10.161</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6541.3630000000003</v>
+        <v>1047.356</v>
       </c>
       <c r="U37">
-        <v>981.85599999999999</v>
+        <v>98.527000000000001</v>
       </c>
       <c r="V37">
-        <v>441.85399999999998</v>
+        <v>38.101999999999997</v>
       </c>
       <c r="W37">
-        <v>-54.5</v>
+        <v>-7.5469999999999997</v>
       </c>
       <c r="X37">
-        <v>-299.47300000000001</v>
+        <v>14.365</v>
       </c>
       <c r="Y37">
-        <v>360.339</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>261.81299999999999</v>
+        <v>23.484000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>60.604999999999997</v>
+        <v>-40.500999999999998</v>
       </c>
       <c r="D38">
-        <v>4381.8879999999999</v>
+        <v>1661.9690000000001</v>
       </c>
       <c r="E38">
-        <v>879.68499999999995</v>
+        <v>762.45500000000004</v>
       </c>
       <c r="F38">
-        <v>357.02199999999999</v>
+        <v>-4.3579999999999997</v>
       </c>
       <c r="G38">
-        <v>3306.1889999999999</v>
+        <v>1283.011</v>
       </c>
       <c r="H38">
-        <v>12164.841</v>
+        <v>3145.9389999999999</v>
       </c>
       <c r="I38">
-        <v>1215.5550000000001</v>
+        <v>975.15499999999997</v>
       </c>
       <c r="J38">
-        <v>2455.64</v>
+        <v>719.154</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3874,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1685.9280000000001</v>
+        <v>1025.1120000000001</v>
       </c>
       <c r="O38">
-        <v>5655.415</v>
+        <v>1938.1579999999999</v>
       </c>
       <c r="P38">
-        <v>2971.2049999999999</v>
+        <v>719.154</v>
       </c>
       <c r="Q38">
-        <v>-96.694000000000003</v>
+        <v>26.068999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>4074</v>
+        <v>1632</v>
       </c>
       <c r="T38">
-        <v>6509.4260000000004</v>
+        <v>1207.7809999999999</v>
       </c>
       <c r="U38">
-        <v>885.16200000000003</v>
+        <v>124.596</v>
       </c>
       <c r="V38">
-        <v>137.20699999999999</v>
+        <v>31.893000000000001</v>
       </c>
       <c r="W38">
-        <v>-57.161999999999999</v>
+        <v>-7.5540000000000003</v>
       </c>
       <c r="X38">
-        <v>-118.91800000000001</v>
+        <v>153.833</v>
       </c>
       <c r="Y38">
-        <v>369.58300000000003</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-17.885999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>60.604999999999997</v>
+        <v>-40.500999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>-304.62299999999999</v>
+        <v>-28.094000000000001</v>
       </c>
       <c r="D39">
-        <v>3400.5450000000001</v>
+        <v>1874.29</v>
       </c>
       <c r="E39">
-        <v>569.18200000000002</v>
+        <v>883.54</v>
       </c>
       <c r="F39">
-        <v>-181.99</v>
+        <v>22.882000000000001</v>
       </c>
       <c r="G39">
-        <v>2509.1379999999999</v>
+        <v>1510.943</v>
       </c>
       <c r="H39">
-        <v>11221.794</v>
+        <v>3382.3270000000002</v>
       </c>
       <c r="I39">
-        <v>841.38300000000004</v>
+        <v>1155.5170000000001</v>
       </c>
       <c r="J39">
-        <v>2496.0059999999999</v>
+        <v>831.09699999999998</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-310</v>
       </c>
       <c r="M39">
-        <v>-589.91</v>
+        <v>-68.245999999999995</v>
       </c>
       <c r="N39">
-        <v>1308.8800000000001</v>
+        <v>1213.0640000000001</v>
       </c>
       <c r="O39">
-        <v>5111.3159999999998</v>
+        <v>2218.8159999999998</v>
       </c>
       <c r="P39">
-        <v>2963.0940000000001</v>
+        <v>831.09699999999998</v>
       </c>
       <c r="Q39">
-        <v>23.963999999999999</v>
+        <v>-31.306999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6110.4780000000001</v>
+        <v>1163.511</v>
       </c>
       <c r="U39">
-        <v>909.12599999999998</v>
+        <v>93.289000000000001</v>
       </c>
       <c r="V39">
-        <v>190.09800000000001</v>
+        <v>-90.024000000000001</v>
       </c>
       <c r="W39">
-        <v>-57.247999999999998</v>
+        <v>-7.9260000000000002</v>
       </c>
       <c r="X39">
-        <v>-71.456999999999994</v>
+        <v>89.814999999999998</v>
       </c>
       <c r="Y39">
-        <v>334.58800000000002</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-2.3450000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-304.62299999999999</v>
+        <v>-28.094000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>-176.67699999999999</v>
+        <v>66.162000000000006</v>
       </c>
       <c r="D40">
-        <v>2062.9299999999998</v>
+        <v>2145.86</v>
       </c>
       <c r="E40">
-        <v>593.38499999999999</v>
+        <v>762.76900000000001</v>
       </c>
       <c r="F40">
-        <v>453.57900000000001</v>
+        <v>176.81700000000001</v>
       </c>
       <c r="G40">
-        <v>2803.5340000000001</v>
+        <v>1385.1279999999999</v>
       </c>
       <c r="H40">
-        <v>11063.82</v>
+        <v>3283.5790000000002</v>
       </c>
       <c r="I40">
-        <v>870.69500000000005</v>
+        <v>1010.097</v>
       </c>
       <c r="J40">
-        <v>2480.7460000000001</v>
+        <v>816.45799999999997</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,81 +4040,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1333.0419999999999</v>
+        <v>1065.4949999999999</v>
       </c>
       <c r="O40">
-        <v>5149.3090000000002</v>
+        <v>2062.8229999999999</v>
       </c>
       <c r="P40">
-        <v>2937.0369999999998</v>
+        <v>816.45799999999997</v>
       </c>
       <c r="Q40">
-        <v>-6.617</v>
+        <v>46.923000000000002</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5914.5110000000004</v>
+        <v>1220.7560000000001</v>
       </c>
       <c r="U40">
-        <v>902.50900000000001</v>
+        <v>140.21199999999999</v>
       </c>
       <c r="V40">
-        <v>119.20399999999999</v>
+        <v>128.37</v>
       </c>
       <c r="W40">
-        <v>-57.182000000000002</v>
+        <v>-7.9749999999999996</v>
       </c>
       <c r="X40">
-        <v>-84.061999999999998</v>
+        <v>-36.015000000000001</v>
       </c>
       <c r="Y40">
-        <v>318.95499999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-176.67699999999999</v>
+        <v>66.162000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>-2.4009999999999998</v>
+        <v>51.177</v>
       </c>
       <c r="D41">
-        <v>2819.4</v>
+        <v>2090.9879999999998</v>
       </c>
       <c r="E41">
-        <v>551.91399999999999</v>
+        <v>718.471</v>
       </c>
       <c r="F41">
-        <v>174.91499999999999</v>
+        <v>153.68100000000001</v>
       </c>
       <c r="G41">
-        <v>3318.828</v>
+        <v>1475.107</v>
       </c>
       <c r="H41">
-        <v>11579.741</v>
+        <v>3397.3789999999999</v>
       </c>
       <c r="I41">
-        <v>825.02099999999996</v>
+        <v>1044.277</v>
       </c>
       <c r="J41">
-        <v>3176.3490000000002</v>
+        <v>662.73099999999999</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4123,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1236.8499999999999</v>
+        <v>1270.3489999999999</v>
       </c>
       <c r="O41">
-        <v>5703.1719999999996</v>
+        <v>2131.902</v>
       </c>
       <c r="P41">
-        <v>3612.8069999999998</v>
+        <v>819.73099999999999</v>
       </c>
       <c r="Q41">
-        <v>622.37900000000002</v>
+        <v>131.708</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5876.5690000000004</v>
+        <v>1265.4770000000001</v>
       </c>
       <c r="U41">
-        <v>1524.8879999999999</v>
+        <v>271.92</v>
       </c>
       <c r="V41">
-        <v>81.748000000000005</v>
+        <v>197.62200000000001</v>
       </c>
       <c r="W41">
-        <v>-57.173000000000002</v>
+        <v>-7.9880000000000004</v>
       </c>
       <c r="X41">
-        <v>618.726</v>
+        <v>-14.505000000000001</v>
       </c>
       <c r="Y41">
-        <v>300.46800000000002</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-3.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-2.4009999999999998</v>
+        <v>51.177</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>14.718999999999999</v>
+      </c>
+      <c r="D42">
+        <v>2211.7910000000002</v>
+      </c>
+      <c r="E42">
+        <v>993.11599999999999</v>
+      </c>
+      <c r="F42">
+        <v>97.986000000000004</v>
+      </c>
+      <c r="G42">
+        <v>1703.4349999999999</v>
+      </c>
+      <c r="H42">
+        <v>3701.4749999999999</v>
+      </c>
+      <c r="I42">
+        <v>1317.4459999999999</v>
+      </c>
+      <c r="J42">
+        <v>820.58699999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1389.855</v>
+      </c>
+      <c r="O42">
+        <v>2413.3359999999998</v>
+      </c>
+      <c r="P42">
+        <v>820.58699999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-42.819000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1661</v>
+      </c>
+      <c r="T42">
+        <v>1288.1389999999999</v>
+      </c>
+      <c r="U42">
+        <v>229.101</v>
+      </c>
+      <c r="V42">
+        <v>47.286999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-7.9790000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-4.8129999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>14.718999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>84.694000000000003</v>
+      </c>
+      <c r="D43">
+        <v>2326.585</v>
+      </c>
+      <c r="E43">
+        <v>1152.2539999999999</v>
+      </c>
+      <c r="F43">
+        <v>207.22499999999999</v>
+      </c>
+      <c r="G43">
+        <v>1915.7539999999999</v>
+      </c>
+      <c r="H43">
+        <v>3989.76</v>
+      </c>
+      <c r="I43">
+        <v>1498.508</v>
+      </c>
+      <c r="J43">
+        <v>842.95600000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-7</v>
+      </c>
+      <c r="N43">
+        <v>1575.242</v>
+      </c>
+      <c r="O43">
+        <v>2621.81</v>
+      </c>
+      <c r="P43">
+        <v>842.95600000000002</v>
+      </c>
+      <c r="Q43">
+        <v>-4.9870000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1367.95</v>
+      </c>
+      <c r="U43">
+        <v>224.114</v>
+      </c>
+      <c r="V43">
+        <v>130.542</v>
+      </c>
+      <c r="W43">
+        <v>-7.984</v>
+      </c>
+      <c r="X43">
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-67.012</v>
+      </c>
+      <c r="AA43">
+        <v>84.694000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>192.23500000000001</v>
+      </c>
+      <c r="D44">
+        <v>2967.1329999999998</v>
+      </c>
+      <c r="E44">
+        <v>1003.527</v>
+      </c>
+      <c r="F44">
+        <v>380.69299999999998</v>
+      </c>
+      <c r="G44">
+        <v>2024.9739999999999</v>
+      </c>
+      <c r="H44">
+        <v>4165.3029999999999</v>
+      </c>
+      <c r="I44">
+        <v>1450.64</v>
+      </c>
+      <c r="J44">
+        <v>847.33799999999997</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1557.5930000000001</v>
+      </c>
+      <c r="O44">
+        <v>2606.1149999999998</v>
+      </c>
+      <c r="P44">
+        <v>847.33799999999997</v>
+      </c>
+      <c r="Q44">
+        <v>202.57499999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1559.1880000000001</v>
+      </c>
+      <c r="U44">
+        <v>426.68900000000002</v>
+      </c>
+      <c r="V44">
+        <v>327.45400000000001</v>
+      </c>
+      <c r="W44">
+        <v>-8</v>
+      </c>
+      <c r="X44">
+        <v>-10.867000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-31.745000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>192.23500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>523.08799999999997</v>
+      </c>
+      <c r="D45">
+        <v>5173.3980000000001</v>
+      </c>
+      <c r="E45">
+        <v>1341.683</v>
+      </c>
+      <c r="F45">
+        <v>955.58799999999997</v>
+      </c>
+      <c r="G45">
+        <v>4379.0879999999997</v>
+      </c>
+      <c r="H45">
+        <v>9916.4629999999997</v>
+      </c>
+      <c r="I45">
+        <v>2102.915</v>
+      </c>
+      <c r="J45">
+        <v>1232.365</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2380.84</v>
+      </c>
+      <c r="O45">
+        <v>4255.6729999999998</v>
+      </c>
+      <c r="P45">
+        <v>1232.365</v>
+      </c>
+      <c r="Q45">
+        <v>1156.17</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5660.79</v>
+      </c>
+      <c r="U45">
+        <v>1582.8589999999999</v>
+      </c>
+      <c r="V45">
+        <v>631.20699999999999</v>
+      </c>
+      <c r="W45">
+        <v>-113.393</v>
+      </c>
+      <c r="X45">
+        <v>-143.25299999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-86.024000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>523.08799999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>223.38</v>
+      </c>
+      <c r="D46">
+        <v>4972.4120000000003</v>
+      </c>
+      <c r="E46">
+        <v>708.85699999999997</v>
+      </c>
+      <c r="F46">
+        <v>467.863</v>
+      </c>
+      <c r="G46">
+        <v>3920.7460000000001</v>
+      </c>
+      <c r="H46">
+        <v>9576.2430000000004</v>
+      </c>
+      <c r="I46">
+        <v>1504.694</v>
+      </c>
+      <c r="J46">
+        <v>1215.2619999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1890.683</v>
+      </c>
+      <c r="O46">
+        <v>3740.3429999999998</v>
+      </c>
+      <c r="P46">
+        <v>1215.2619999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-3.9550000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2382</v>
+      </c>
+      <c r="T46">
+        <v>5835.9</v>
+      </c>
+      <c r="U46">
+        <v>1578.904</v>
+      </c>
+      <c r="V46">
+        <v>249.18799999999999</v>
+      </c>
+      <c r="W46">
+        <v>-122.756</v>
+      </c>
+      <c r="X46">
+        <v>-68.483000000000004</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-85.222999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>223.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>241.696</v>
+      </c>
+      <c r="D47">
+        <v>4931.7380000000003</v>
+      </c>
+      <c r="E47">
+        <v>733.14700000000005</v>
+      </c>
+      <c r="F47">
+        <v>503.19400000000002</v>
+      </c>
+      <c r="G47">
+        <v>4127.6009999999997</v>
+      </c>
+      <c r="H47">
+        <v>9785.75</v>
+      </c>
+      <c r="I47">
+        <v>1641.107</v>
+      </c>
+      <c r="J47">
+        <v>1286.634</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-238.761</v>
+      </c>
+      <c r="N47">
+        <v>2118.3809999999999</v>
+      </c>
+      <c r="O47">
+        <v>3996.1709999999998</v>
+      </c>
+      <c r="P47">
+        <v>1312.915</v>
+      </c>
+      <c r="Q47">
+        <v>80.646000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5789.5789999999997</v>
+      </c>
+      <c r="U47">
+        <v>1659.55</v>
+      </c>
+      <c r="V47">
+        <v>253.905</v>
+      </c>
+      <c r="W47">
+        <v>-126.01900000000001</v>
+      </c>
+      <c r="X47">
+        <v>-104.57899999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-7.2930000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>241.696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>493.49900000000002</v>
+      </c>
+      <c r="D48">
+        <v>4806.6809999999996</v>
+      </c>
+      <c r="E48">
+        <v>603.726</v>
+      </c>
+      <c r="F48">
+        <v>902.19100000000003</v>
+      </c>
+      <c r="G48">
+        <v>3705.692</v>
+      </c>
+      <c r="H48">
+        <v>9382.5319999999992</v>
+      </c>
+      <c r="I48">
+        <v>1096.2159999999999</v>
+      </c>
+      <c r="J48">
+        <v>1297.5450000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1561.6849999999999</v>
+      </c>
+      <c r="O48">
+        <v>3434.9070000000002</v>
+      </c>
+      <c r="P48">
+        <v>1297.5450000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-287.35199999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5947.625</v>
+      </c>
+      <c r="U48">
+        <v>1372.1980000000001</v>
+      </c>
+      <c r="V48">
+        <v>175.59800000000001</v>
+      </c>
+      <c r="W48">
+        <v>-123.93899999999999</v>
+      </c>
+      <c r="X48">
+        <v>-387.17700000000002</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-9.14</v>
+      </c>
+      <c r="AA48">
+        <v>493.49900000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>600.37300000000005</v>
+      </c>
+      <c r="D49">
+        <v>5204.7979999999998</v>
+      </c>
+      <c r="E49">
+        <v>736.87400000000002</v>
+      </c>
+      <c r="F49">
+        <v>1072.203</v>
+      </c>
+      <c r="G49">
+        <v>4631.9210000000003</v>
+      </c>
+      <c r="H49">
+        <v>10345.936</v>
+      </c>
+      <c r="I49">
+        <v>1530.7139999999999</v>
+      </c>
+      <c r="J49">
+        <v>1349.991</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2077.16</v>
+      </c>
+      <c r="O49">
+        <v>3986.44</v>
+      </c>
+      <c r="P49">
+        <v>1349.991</v>
+      </c>
+      <c r="Q49">
+        <v>685.21</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>6359.4960000000001</v>
+      </c>
+      <c r="U49">
+        <v>2057.4079999999999</v>
+      </c>
+      <c r="V49">
+        <v>742.28499999999997</v>
+      </c>
+      <c r="W49">
+        <v>-132.65199999999999</v>
+      </c>
+      <c r="X49">
+        <v>32.107999999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-9.6660000000000004</v>
+      </c>
+      <c r="AA49">
+        <v>600.37300000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>391.60399999999998</v>
+      </c>
+      <c r="D50">
+        <v>5147.5069999999996</v>
+      </c>
+      <c r="E50">
+        <v>634.23</v>
+      </c>
+      <c r="F50">
+        <v>777.52700000000004</v>
+      </c>
+      <c r="G50">
+        <v>4470.2650000000003</v>
+      </c>
+      <c r="H50">
+        <v>10328.996999999999</v>
+      </c>
+      <c r="I50">
+        <v>1314.1510000000001</v>
+      </c>
+      <c r="J50">
+        <v>1339.6679999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1654.444</v>
+      </c>
+      <c r="O50">
+        <v>3686.3389999999999</v>
+      </c>
+      <c r="P50">
+        <v>1339.6679999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-299.709</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2534</v>
+      </c>
+      <c r="T50">
+        <v>6642.6580000000004</v>
+      </c>
+      <c r="U50">
+        <v>1757.6990000000001</v>
+      </c>
+      <c r="V50">
+        <v>490.899</v>
+      </c>
+      <c r="W50">
+        <v>-275.47500000000002</v>
+      </c>
+      <c r="X50">
+        <v>-313.14</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-349.74200000000002</v>
+      </c>
+      <c r="AA50">
+        <v>391.60399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>333.66899999999998</v>
+      </c>
+      <c r="D51">
+        <v>4707.7889999999998</v>
+      </c>
+      <c r="E51">
+        <v>656.524</v>
+      </c>
+      <c r="F51">
+        <v>650.15499999999997</v>
+      </c>
+      <c r="G51">
+        <v>4763.3100000000004</v>
+      </c>
+      <c r="H51">
+        <v>10696.172</v>
+      </c>
+      <c r="I51">
+        <v>1339.4190000000001</v>
+      </c>
+      <c r="J51">
+        <v>1286.1130000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-110</v>
+      </c>
+      <c r="N51">
+        <v>1766.954</v>
+      </c>
+      <c r="O51">
+        <v>3767.125</v>
+      </c>
+      <c r="P51">
+        <v>1286.1130000000001</v>
+      </c>
+      <c r="Q51">
+        <v>114.74299999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6929.0469999999996</v>
+      </c>
+      <c r="U51">
+        <v>1872.442</v>
+      </c>
+      <c r="V51">
+        <v>248.56299999999999</v>
+      </c>
+      <c r="W51">
+        <v>-102.163</v>
+      </c>
+      <c r="X51">
+        <v>-29.175000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-34.970999999999997</v>
+      </c>
+      <c r="AA51">
+        <v>333.66899999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>256.98099999999999</v>
+      </c>
+      <c r="D52">
+        <v>5298.848</v>
+      </c>
+      <c r="E52">
+        <v>770.80499999999995</v>
+      </c>
+      <c r="F52">
+        <v>564.49800000000005</v>
+      </c>
+      <c r="G52">
+        <v>4448.152</v>
+      </c>
+      <c r="H52">
+        <v>10493.933999999999</v>
+      </c>
+      <c r="I52">
+        <v>1593.37</v>
+      </c>
+      <c r="J52">
+        <v>990.23599999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1879.691</v>
+      </c>
+      <c r="O52">
+        <v>3594.556</v>
+      </c>
+      <c r="P52">
+        <v>990.23599999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-523.02200000000005</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6899.3779999999997</v>
+      </c>
+      <c r="U52">
+        <v>1349.42</v>
+      </c>
+      <c r="V52">
+        <v>202.952</v>
+      </c>
+      <c r="W52">
+        <v>-162.70400000000001</v>
+      </c>
+      <c r="X52">
+        <v>-649.52599999999995</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>18.879000000000001</v>
+      </c>
+      <c r="AA52">
+        <v>256.98099999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>82.29</v>
+      </c>
+      <c r="D53">
+        <v>5327.1220000000003</v>
+      </c>
+      <c r="E53">
+        <v>755.67200000000003</v>
+      </c>
+      <c r="F53">
+        <v>260.81400000000002</v>
+      </c>
+      <c r="G53">
+        <v>4410.1350000000002</v>
+      </c>
+      <c r="H53">
+        <v>10498.644</v>
+      </c>
+      <c r="I53">
+        <v>1615.97</v>
+      </c>
+      <c r="J53">
+        <v>1001.86</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1893.9480000000001</v>
+      </c>
+      <c r="O53">
+        <v>3702.4940000000001</v>
+      </c>
+      <c r="P53">
+        <v>1001.86</v>
+      </c>
+      <c r="Q53">
+        <v>-54.936</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6796.15</v>
+      </c>
+      <c r="U53">
+        <v>1294.4839999999999</v>
+      </c>
+      <c r="V53">
+        <v>350.64800000000002</v>
+      </c>
+      <c r="W53">
+        <v>-220.54400000000001</v>
+      </c>
+      <c r="X53">
+        <v>-254.54900000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-24.347999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>82.29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>62.902000000000001</v>
+      </c>
+      <c r="D54">
+        <v>4826.8010000000004</v>
+      </c>
+      <c r="E54">
+        <v>708.80200000000002</v>
+      </c>
+      <c r="F54">
+        <v>202.01599999999999</v>
+      </c>
+      <c r="G54">
+        <v>3896.444</v>
+      </c>
+      <c r="H54">
+        <v>10056.739</v>
+      </c>
+      <c r="I54">
+        <v>1325.376</v>
+      </c>
+      <c r="J54">
+        <v>999.33299999999997</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1674.49</v>
+      </c>
+      <c r="O54">
+        <v>3447.3409999999999</v>
+      </c>
+      <c r="P54">
+        <v>999.33299999999997</v>
+      </c>
+      <c r="Q54">
+        <v>-354.38099999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2662</v>
+      </c>
+      <c r="T54">
+        <v>6609.3980000000001</v>
+      </c>
+      <c r="U54">
+        <v>940.10299999999995</v>
+      </c>
+      <c r="V54">
+        <v>67.010999999999996</v>
+      </c>
+      <c r="W54">
+        <v>-160.50899999999999</v>
+      </c>
+      <c r="X54">
+        <v>-226.785</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-57.668999999999997</v>
+      </c>
+      <c r="AA54">
+        <v>62.902000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>152.06100000000001</v>
+      </c>
+      <c r="D55">
+        <v>4791.0529999999999</v>
+      </c>
+      <c r="E55">
+        <v>688.33799999999997</v>
+      </c>
+      <c r="F55">
+        <v>378.46699999999998</v>
+      </c>
+      <c r="G55">
+        <v>4185.509</v>
+      </c>
+      <c r="H55">
+        <v>10380.558000000001</v>
+      </c>
+      <c r="I55">
+        <v>1570.973</v>
+      </c>
+      <c r="J55">
+        <v>1024.7339999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-402.78800000000001</v>
+      </c>
+      <c r="N55">
+        <v>1916.51</v>
+      </c>
+      <c r="O55">
+        <v>3732.0569999999998</v>
+      </c>
+      <c r="P55">
+        <v>1024.7339999999999</v>
+      </c>
+      <c r="Q55">
+        <v>134.53200000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6648.5010000000002</v>
+      </c>
+      <c r="U55">
+        <v>1074.635</v>
+      </c>
+      <c r="V55">
+        <v>394.92899999999997</v>
+      </c>
+      <c r="W55">
+        <v>-158.614</v>
+      </c>
+      <c r="X55">
+        <v>-147.34800000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>11.231999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>152.06100000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>176.429</v>
+      </c>
+      <c r="D56">
+        <v>5372.6</v>
+      </c>
+      <c r="E56">
+        <v>780.18</v>
+      </c>
+      <c r="F56">
+        <v>426.1</v>
+      </c>
+      <c r="G56">
+        <v>4236.1310000000003</v>
+      </c>
+      <c r="H56">
+        <v>10458.383</v>
+      </c>
+      <c r="I56">
+        <v>1624.953</v>
+      </c>
+      <c r="J56">
+        <v>1029.5139999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1967.6949999999999</v>
+      </c>
+      <c r="O56">
+        <v>3791.7640000000001</v>
+      </c>
+      <c r="P56">
+        <v>1029.5139999999999</v>
+      </c>
+      <c r="Q56">
+        <v>43.667000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6666.6189999999997</v>
+      </c>
+      <c r="U56">
+        <v>1118.3019999999999</v>
+      </c>
+      <c r="V56">
+        <v>326.55</v>
+      </c>
+      <c r="W56">
+        <v>-164.47399999999999</v>
+      </c>
+      <c r="X56">
+        <v>-201.708</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>39.313000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>176.429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>175.006</v>
+      </c>
+      <c r="D57">
+        <v>5317.5550000000003</v>
+      </c>
+      <c r="E57">
+        <v>690.25099999999998</v>
+      </c>
+      <c r="F57">
+        <v>410.70499999999998</v>
+      </c>
+      <c r="G57">
+        <v>3893.7330000000002</v>
+      </c>
+      <c r="H57">
+        <v>10181.77</v>
+      </c>
+      <c r="I57">
+        <v>1441.115</v>
+      </c>
+      <c r="J57">
+        <v>1040.627</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1786.749</v>
+      </c>
+      <c r="O57">
+        <v>3620.922</v>
+      </c>
+      <c r="P57">
+        <v>1040.627</v>
+      </c>
+      <c r="Q57">
+        <v>-262.27600000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6560.848</v>
+      </c>
+      <c r="U57">
+        <v>856.02599999999995</v>
+      </c>
+      <c r="V57">
+        <v>84.453999999999994</v>
+      </c>
+      <c r="W57">
+        <v>-162.678</v>
+      </c>
+      <c r="X57">
+        <v>-293.09800000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>56.021000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>175.006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>-222.20400000000001</v>
+      </c>
+      <c r="D58">
+        <v>4283.1189999999997</v>
+      </c>
+      <c r="E58">
+        <v>589.90499999999997</v>
+      </c>
+      <c r="F58">
+        <v>-221.74799999999999</v>
+      </c>
+      <c r="G58">
+        <v>2782.998</v>
+      </c>
+      <c r="H58">
+        <v>9230.0470000000005</v>
+      </c>
+      <c r="I58">
+        <v>1108.1379999999999</v>
+      </c>
+      <c r="J58">
+        <v>1055.3620000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1233.9939999999999</v>
+      </c>
+      <c r="O58">
+        <v>3129.328</v>
+      </c>
+      <c r="P58">
+        <v>1055.3620000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-288.041</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2686</v>
+      </c>
+      <c r="T58">
+        <v>6100.7190000000001</v>
+      </c>
+      <c r="U58">
+        <v>567.98500000000001</v>
+      </c>
+      <c r="V58">
+        <v>-47.337000000000003</v>
+      </c>
+      <c r="W58">
+        <v>-161.43100000000001</v>
+      </c>
+      <c r="X58">
+        <v>-196.238</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>-222.20400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>226.876</v>
+      </c>
+      <c r="D59">
+        <v>3006.6260000000002</v>
+      </c>
+      <c r="E59">
+        <v>526.85299999999995</v>
+      </c>
+      <c r="F59">
+        <v>498.20299999999997</v>
+      </c>
+      <c r="G59">
+        <v>2715.7779999999998</v>
+      </c>
+      <c r="H59">
+        <v>9262.1270000000004</v>
+      </c>
+      <c r="I59">
+        <v>930.90899999999999</v>
+      </c>
+      <c r="J59">
+        <v>1078.3109999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-130.5</v>
+      </c>
+      <c r="N59">
+        <v>1172.403</v>
+      </c>
+      <c r="O59">
+        <v>3062.6239999999998</v>
+      </c>
+      <c r="P59">
+        <v>1078.3109999999999</v>
+      </c>
+      <c r="Q59">
+        <v>26.106999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6199.5029999999997</v>
+      </c>
+      <c r="U59">
+        <v>594.09199999999998</v>
+      </c>
+      <c r="V59">
+        <v>246.892</v>
+      </c>
+      <c r="W59">
+        <v>-62.335000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-108.688</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>59.707999999999998</v>
+      </c>
+      <c r="AA59">
+        <v>226.876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>360.82400000000001</v>
+      </c>
+      <c r="D60">
+        <v>3701.9119999999998</v>
+      </c>
+      <c r="E60">
+        <v>626.10699999999997</v>
+      </c>
+      <c r="F60">
+        <v>703.75199999999995</v>
+      </c>
+      <c r="G60">
+        <v>2519.5390000000002</v>
+      </c>
+      <c r="H60">
+        <v>9145.2860000000001</v>
+      </c>
+      <c r="I60">
+        <v>1050.3920000000001</v>
+      </c>
+      <c r="J60">
+        <v>933.86900000000003</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1240.491</v>
+      </c>
+      <c r="O60">
+        <v>2977.3310000000001</v>
+      </c>
+      <c r="P60">
+        <v>933.86900000000003</v>
+      </c>
+      <c r="Q60">
+        <v>-360.733</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6167.9549999999999</v>
+      </c>
+      <c r="U60">
+        <v>233.35900000000001</v>
+      </c>
+      <c r="V60">
+        <v>323.048</v>
+      </c>
+      <c r="W60">
+        <v>-62.856999999999999</v>
+      </c>
+      <c r="X60">
+        <v>-562.49900000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>360.82400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>196.322</v>
+      </c>
+      <c r="D61">
+        <v>3585.8229999999999</v>
+      </c>
+      <c r="E61">
+        <v>522.34900000000005</v>
+      </c>
+      <c r="F61">
+        <v>441.11500000000001</v>
+      </c>
+      <c r="G61">
+        <v>2307.6729999999998</v>
+      </c>
+      <c r="H61">
+        <v>9071.6370000000006</v>
+      </c>
+      <c r="I61">
+        <v>926.625</v>
+      </c>
+      <c r="J61">
+        <v>982.846</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1092.453</v>
+      </c>
+      <c r="O61">
+        <v>2889.953</v>
+      </c>
+      <c r="P61">
+        <v>982.846</v>
+      </c>
+      <c r="Q61">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6181.6840000000002</v>
+      </c>
+      <c r="U61">
+        <v>239.73099999999999</v>
+      </c>
+      <c r="V61">
+        <v>333.40100000000001</v>
+      </c>
+      <c r="W61">
+        <v>-62.18</v>
+      </c>
+      <c r="X61">
+        <v>-134.96799999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-48.676000000000002</v>
+      </c>
+      <c r="AA61">
+        <v>196.322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>-43.920999999999999</v>
+      </c>
+      <c r="D62">
+        <v>2943.5590000000002</v>
+      </c>
+      <c r="E62">
+        <v>351.97800000000001</v>
+      </c>
+      <c r="F62">
+        <v>68.28</v>
+      </c>
+      <c r="G62">
+        <v>1448.0650000000001</v>
+      </c>
+      <c r="H62">
+        <v>8388.2990000000009</v>
+      </c>
+      <c r="I62">
+        <v>716.49</v>
+      </c>
+      <c r="J62">
+        <v>1040.04</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>860.61500000000001</v>
+      </c>
+      <c r="O62">
+        <v>2578.5259999999998</v>
+      </c>
+      <c r="P62">
+        <v>1040.04</v>
+      </c>
+      <c r="Q62">
+        <v>-173.19800000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2704</v>
+      </c>
+      <c r="T62">
+        <v>5809.7730000000001</v>
+      </c>
+      <c r="U62">
+        <v>66.533000000000001</v>
+      </c>
+      <c r="V62">
+        <v>76.284999999999997</v>
+      </c>
+      <c r="W62">
+        <v>-59.536000000000001</v>
+      </c>
+      <c r="X62">
+        <v>-293.17500000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>242.517</v>
+      </c>
+      <c r="AA62">
+        <v>-43.920999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>21.253</v>
+      </c>
+      <c r="D63">
+        <v>2018.7239999999999</v>
+      </c>
+      <c r="E63">
+        <v>430.91399999999999</v>
+      </c>
+      <c r="F63">
+        <v>197.09899999999999</v>
+      </c>
+      <c r="G63">
+        <v>1499.27</v>
+      </c>
+      <c r="H63">
+        <v>8594.2870000000003</v>
+      </c>
+      <c r="I63">
+        <v>731.27099999999996</v>
+      </c>
+      <c r="J63">
+        <v>1308.1679999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-823.5</v>
+      </c>
+      <c r="N63">
+        <v>885.60799999999995</v>
+      </c>
+      <c r="O63">
+        <v>2951.0889999999999</v>
+      </c>
+      <c r="P63">
+        <v>1308.1679999999999</v>
+      </c>
+      <c r="Q63">
+        <v>44.488</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5643.1980000000003</v>
+      </c>
+      <c r="U63">
+        <v>111.021</v>
+      </c>
+      <c r="V63">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W63">
+        <v>-58.601999999999997</v>
+      </c>
+      <c r="X63">
+        <v>43.045000000000002</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>144.12200000000001</v>
+      </c>
+      <c r="AA63">
+        <v>21.253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>-409.36799999999999</v>
+      </c>
+      <c r="D64">
+        <v>2714.6379999999999</v>
+      </c>
+      <c r="E64">
+        <v>481.50799999999998</v>
+      </c>
+      <c r="F64">
+        <v>353.62</v>
+      </c>
+      <c r="G64">
+        <v>2118.098</v>
+      </c>
+      <c r="H64">
+        <v>8659.7170000000006</v>
+      </c>
+      <c r="I64">
+        <v>913.45600000000002</v>
+      </c>
+      <c r="J64">
+        <v>1678.123</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1048.5540000000001</v>
+      </c>
+      <c r="O64">
+        <v>3461.8069999999998</v>
+      </c>
+      <c r="P64">
+        <v>1678.123</v>
+      </c>
+      <c r="Q64">
+        <v>340.96899999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5197.91</v>
+      </c>
+      <c r="U64">
+        <v>451.99</v>
+      </c>
+      <c r="V64">
+        <v>303.69</v>
+      </c>
+      <c r="W64">
+        <v>-58.192999999999998</v>
+      </c>
+      <c r="X64">
+        <v>301.42200000000003</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-123.821</v>
+      </c>
+      <c r="AA64">
+        <v>-409.36799999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>74.497</v>
+      </c>
+      <c r="D65">
+        <v>2847.27</v>
+      </c>
+      <c r="E65">
+        <v>395.93700000000001</v>
+      </c>
+      <c r="F65">
+        <v>248.88900000000001</v>
+      </c>
+      <c r="G65">
+        <v>2031.4659999999999</v>
+      </c>
+      <c r="H65">
+        <v>8596.4480000000003</v>
+      </c>
+      <c r="I65">
+        <v>803.03099999999995</v>
+      </c>
+      <c r="J65">
+        <v>1665.6020000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>966.81799999999998</v>
+      </c>
+      <c r="O65">
+        <v>3376.047</v>
+      </c>
+      <c r="P65">
+        <v>1665.6020000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-85.668999999999997</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5220.4009999999998</v>
+      </c>
+      <c r="U65">
+        <v>366.32100000000003</v>
+      </c>
+      <c r="V65">
+        <v>133.94800000000001</v>
+      </c>
+      <c r="W65">
+        <v>-58.399000000000001</v>
+      </c>
+      <c r="X65">
+        <v>-91.799000000000007</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-30.584</v>
+      </c>
+      <c r="AA65">
+        <v>74.497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>53.164999999999999</v>
+      </c>
+      <c r="D66">
+        <v>2955.0680000000002</v>
+      </c>
+      <c r="E66">
+        <v>479.19900000000001</v>
+      </c>
+      <c r="F66">
+        <v>243.26400000000001</v>
+      </c>
+      <c r="G66">
+        <v>2851.009</v>
+      </c>
+      <c r="H66">
+        <v>9435.6610000000001</v>
+      </c>
+      <c r="I66">
+        <v>935.38699999999994</v>
+      </c>
+      <c r="J66">
+        <v>2235.1370000000002</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1083.229</v>
+      </c>
+      <c r="O66">
+        <v>4133.6760000000004</v>
+      </c>
+      <c r="P66">
+        <v>2235.1370000000002</v>
+      </c>
+      <c r="Q66">
+        <v>344.25799999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2676</v>
+      </c>
+      <c r="T66">
+        <v>5301.9849999999997</v>
+      </c>
+      <c r="U66">
+        <v>710.57899999999995</v>
+      </c>
+      <c r="V66">
+        <v>162.67400000000001</v>
+      </c>
+      <c r="W66">
+        <v>-58.81</v>
+      </c>
+      <c r="X66">
+        <v>586.02700000000004</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-312.37299999999999</v>
+      </c>
+      <c r="AA66">
+        <v>53.164999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>-45.468000000000004</v>
+      </c>
+      <c r="D67">
+        <v>3080.4830000000002</v>
+      </c>
+      <c r="E67">
+        <v>601.11699999999996</v>
+      </c>
+      <c r="F67">
+        <v>119.759</v>
+      </c>
+      <c r="G67">
+        <v>2168.8389999999999</v>
+      </c>
+      <c r="H67">
+        <v>9542.3520000000008</v>
+      </c>
+      <c r="I67">
+        <v>953.928</v>
+      </c>
+      <c r="J67">
+        <v>2231.5419999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-421.75</v>
+      </c>
+      <c r="N67">
+        <v>1141.6559999999999</v>
+      </c>
+      <c r="O67">
+        <v>4319.1580000000004</v>
+      </c>
+      <c r="P67">
+        <v>2231.5419999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-581.06700000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5223.1940000000004</v>
+      </c>
+      <c r="U67">
+        <v>129.512</v>
+      </c>
+      <c r="V67">
+        <v>-39.384</v>
+      </c>
+      <c r="W67">
+        <v>-58.991999999999997</v>
+      </c>
+      <c r="X67">
+        <v>-68.363</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>424.15100000000001</v>
+      </c>
+      <c r="AA67">
+        <v>-45.468000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>57.767000000000003</v>
+      </c>
+      <c r="D68">
+        <v>3458.864</v>
+      </c>
+      <c r="E68">
+        <v>602.35</v>
+      </c>
+      <c r="F68">
+        <v>305.16199999999998</v>
+      </c>
+      <c r="G68">
+        <v>2293.7629999999999</v>
+      </c>
+      <c r="H68">
+        <v>9643.0349999999999</v>
+      </c>
+      <c r="I68">
+        <v>1009.135</v>
+      </c>
+      <c r="J68">
+        <v>2227.951</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1220.4480000000001</v>
+      </c>
+      <c r="O68">
+        <v>4400.951</v>
+      </c>
+      <c r="P68">
+        <v>2227.951</v>
+      </c>
+      <c r="Q68">
+        <v>330.81400000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5242.0839999999998</v>
+      </c>
+      <c r="U68">
+        <v>460.32600000000002</v>
+      </c>
+      <c r="V68">
+        <v>512.78200000000004</v>
+      </c>
+      <c r="W68">
+        <v>-58.762</v>
+      </c>
+      <c r="X68">
+        <v>-75.102999999999994</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>57.767000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>272.01400000000001</v>
+      </c>
+      <c r="D69">
+        <v>3719.2469999999998</v>
+      </c>
+      <c r="E69">
+        <v>714.34799999999996</v>
+      </c>
+      <c r="F69">
+        <v>619.54899999999998</v>
+      </c>
+      <c r="G69">
+        <v>2797.0610000000001</v>
+      </c>
+      <c r="H69">
+        <v>10148.355</v>
+      </c>
+      <c r="I69">
+        <v>1101.6679999999999</v>
+      </c>
+      <c r="J69">
+        <v>2236.5140000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1401.0150000000001</v>
+      </c>
+      <c r="O69">
+        <v>4682.5780000000004</v>
+      </c>
+      <c r="P69">
+        <v>2236.5140000000001</v>
+      </c>
+      <c r="Q69">
+        <v>170.416</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5465.777</v>
+      </c>
+      <c r="U69">
+        <v>630.74199999999996</v>
+      </c>
+      <c r="V69">
+        <v>312.01499999999999</v>
+      </c>
+      <c r="W69">
+        <v>-58.765000000000001</v>
+      </c>
+      <c r="X69">
+        <v>-86.986000000000004</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>272.01400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>521.08199999999999</v>
+      </c>
+      <c r="D70">
+        <v>3992.7049999999999</v>
+      </c>
+      <c r="E70">
+        <v>720.73299999999995</v>
+      </c>
+      <c r="F70">
+        <v>550.97199999999998</v>
+      </c>
+      <c r="G70">
+        <v>3062.828</v>
+      </c>
+      <c r="H70">
+        <v>10692.154</v>
+      </c>
+      <c r="I70">
+        <v>1220.7950000000001</v>
+      </c>
+      <c r="J70">
+        <v>2498.9929999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1422.71</v>
+      </c>
+      <c r="O70">
+        <v>4795.2139999999999</v>
+      </c>
+      <c r="P70">
+        <v>2498.9929999999999</v>
+      </c>
+      <c r="Q70">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>3522</v>
+      </c>
+      <c r="T70">
+        <v>5896.94</v>
+      </c>
+      <c r="U70">
+        <v>630.75699999999995</v>
+      </c>
+      <c r="V70">
+        <v>165.977</v>
+      </c>
+      <c r="W70">
+        <v>-58.988999999999997</v>
+      </c>
+      <c r="X70">
+        <v>157.822</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>521.08199999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>268.09100000000001</v>
+      </c>
+      <c r="D71">
+        <v>4128.4269999999997</v>
+      </c>
+      <c r="E71">
+        <v>842.798</v>
+      </c>
+      <c r="F71">
+        <v>564.85199999999998</v>
+      </c>
+      <c r="G71">
+        <v>3292.913</v>
+      </c>
+      <c r="H71">
+        <v>10912.074000000001</v>
+      </c>
+      <c r="I71">
+        <v>1194.0820000000001</v>
+      </c>
+      <c r="J71">
+        <v>2382.8739999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-343.5</v>
+      </c>
+      <c r="N71">
+        <v>1465.0060000000001</v>
+      </c>
+      <c r="O71">
+        <v>4754.1620000000003</v>
+      </c>
+      <c r="P71">
+        <v>2382.8739999999998</v>
+      </c>
+      <c r="Q71">
+        <v>150.71</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6157.9120000000003</v>
+      </c>
+      <c r="U71">
+        <v>781.46699999999998</v>
+      </c>
+      <c r="V71">
+        <v>333.78399999999999</v>
+      </c>
+      <c r="W71">
+        <v>-58.856000000000002</v>
+      </c>
+      <c r="X71">
+        <v>-115.711</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>268.09100000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>345.50700000000001</v>
+      </c>
+      <c r="D72">
+        <v>4471.2359999999999</v>
+      </c>
+      <c r="E72">
+        <v>825.25099999999998</v>
+      </c>
+      <c r="F72">
+        <v>711.33100000000002</v>
+      </c>
+      <c r="G72">
+        <v>3702.4720000000002</v>
+      </c>
+      <c r="H72">
+        <v>11281.352000000001</v>
+      </c>
+      <c r="I72">
+        <v>1243.289</v>
+      </c>
+      <c r="J72">
+        <v>2387.759</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1555.847</v>
+      </c>
+      <c r="O72">
+        <v>4877.7089999999998</v>
+      </c>
+      <c r="P72">
+        <v>2387.759</v>
+      </c>
+      <c r="Q72">
+        <v>198.405</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6403.643</v>
+      </c>
+      <c r="U72">
+        <v>979.87199999999996</v>
+      </c>
+      <c r="V72">
+        <v>394.36099999999999</v>
+      </c>
+      <c r="W72">
+        <v>-58.643999999999998</v>
+      </c>
+      <c r="X72">
+        <v>-114.004</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>345.50700000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>342.46600000000001</v>
+      </c>
+      <c r="D73">
+        <v>4770.799</v>
+      </c>
+      <c r="E73">
+        <v>847.596</v>
+      </c>
+      <c r="F73">
+        <v>683.53200000000004</v>
+      </c>
+      <c r="G73">
+        <v>3857.7249999999999</v>
+      </c>
+      <c r="H73">
+        <v>11495.126</v>
+      </c>
+      <c r="I73">
+        <v>1176.4169999999999</v>
+      </c>
+      <c r="J73">
+        <v>2409.1480000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1540.635</v>
+      </c>
+      <c r="O73">
+        <v>4931.6139999999996</v>
+      </c>
+      <c r="P73">
+        <v>2409.1480000000001</v>
+      </c>
+      <c r="Q73">
+        <v>95.805000000000007</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6563.5119999999997</v>
+      </c>
+      <c r="U73">
+        <v>1075.6769999999999</v>
+      </c>
+      <c r="V73">
+        <v>401.75200000000001</v>
+      </c>
+      <c r="W73">
+        <v>-58.420999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-193.70099999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>342.46600000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>141.89599999999999</v>
+      </c>
+      <c r="D74">
+        <v>4344.2039999999997</v>
+      </c>
+      <c r="E74">
+        <v>671.70100000000002</v>
+      </c>
+      <c r="F74">
+        <v>417.32600000000002</v>
+      </c>
+      <c r="G74">
+        <v>3296.3789999999999</v>
+      </c>
+      <c r="H74">
+        <v>10994.601000000001</v>
+      </c>
+      <c r="I74">
+        <v>872.62699999999995</v>
+      </c>
+      <c r="J74">
+        <v>2411.54</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1168.155</v>
+      </c>
+      <c r="O74">
+        <v>4535.5420000000004</v>
+      </c>
+      <c r="P74">
+        <v>2411.54</v>
+      </c>
+      <c r="Q74">
+        <v>79.075000000000003</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3622</v>
+      </c>
+      <c r="T74">
+        <v>6459.0590000000002</v>
+      </c>
+      <c r="U74">
+        <v>1154.752</v>
+      </c>
+      <c r="V74">
+        <v>424.51900000000001</v>
+      </c>
+      <c r="W74">
+        <v>-57.622999999999998</v>
+      </c>
+      <c r="X74">
+        <v>-240.91200000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>141.89599999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>253.05500000000001</v>
+      </c>
+      <c r="D75">
+        <v>3897.2469999999998</v>
+      </c>
+      <c r="E75">
+        <v>1041.454</v>
+      </c>
+      <c r="F75">
+        <v>598.79600000000005</v>
+      </c>
+      <c r="G75">
+        <v>3321.3380000000002</v>
+      </c>
+      <c r="H75">
+        <v>12123.43</v>
+      </c>
+      <c r="I75">
+        <v>1158.759</v>
+      </c>
+      <c r="J75">
+        <v>2430.9340000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-85.408000000000001</v>
+      </c>
+      <c r="N75">
+        <v>1669.2850000000001</v>
+      </c>
+      <c r="O75">
+        <v>5528.8559999999998</v>
+      </c>
+      <c r="P75">
+        <v>2902.66</v>
+      </c>
+      <c r="Q75">
+        <v>-658.61300000000006</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6594.5739999999996</v>
+      </c>
+      <c r="U75">
+        <v>496.13900000000001</v>
+      </c>
+      <c r="V75">
+        <v>216.816</v>
+      </c>
+      <c r="W75">
+        <v>-56.848999999999997</v>
+      </c>
+      <c r="X75">
+        <v>-150.12799999999999</v>
+      </c>
+      <c r="Y75">
+        <v>346.81599999999997</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>253.05500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>196.91499999999999</v>
+      </c>
+      <c r="D76">
+        <v>4782.6149999999998</v>
+      </c>
+      <c r="E76">
+        <v>799.36800000000005</v>
+      </c>
+      <c r="F76">
+        <v>696.678</v>
+      </c>
+      <c r="G76">
+        <v>3466.3969999999999</v>
+      </c>
+      <c r="H76">
+        <v>12104.491</v>
+      </c>
+      <c r="I76">
+        <v>1199.3109999999999</v>
+      </c>
+      <c r="J76">
+        <v>2430.8319999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1664.027</v>
+      </c>
+      <c r="O76">
+        <v>5573.4920000000002</v>
+      </c>
+      <c r="P76">
+        <v>2923.4870000000001</v>
+      </c>
+      <c r="Q76">
+        <v>418.505</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6530.9989999999998</v>
+      </c>
+      <c r="U76">
+        <v>914.64400000000001</v>
+      </c>
+      <c r="V76">
+        <v>752.73400000000004</v>
+      </c>
+      <c r="W76">
+        <v>-56.658999999999999</v>
+      </c>
+      <c r="X76">
+        <v>-279.73599999999999</v>
+      </c>
+      <c r="Y76">
+        <v>362.21499999999997</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>196.91499999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>261.81299999999999</v>
+      </c>
+      <c r="D77">
+        <v>4424.8280000000004</v>
+      </c>
+      <c r="E77">
+        <v>839.83100000000002</v>
+      </c>
+      <c r="F77">
+        <v>641.42100000000005</v>
+      </c>
+      <c r="G77">
+        <v>3532.7660000000001</v>
+      </c>
+      <c r="H77">
+        <v>12191.328</v>
+      </c>
+      <c r="I77">
+        <v>1229.7670000000001</v>
+      </c>
+      <c r="J77">
+        <v>2425.2339999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1705.346</v>
+      </c>
+      <c r="O77">
+        <v>5649.9650000000001</v>
+      </c>
+      <c r="P77">
+        <v>2923.3580000000002</v>
+      </c>
+      <c r="Q77">
+        <v>67.212000000000003</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6541.3630000000003</v>
+      </c>
+      <c r="U77">
+        <v>981.85599999999999</v>
+      </c>
+      <c r="V77">
+        <v>441.85399999999998</v>
+      </c>
+      <c r="W77">
+        <v>-54.5</v>
+      </c>
+      <c r="X77">
+        <v>-299.47300000000001</v>
+      </c>
+      <c r="Y77">
+        <v>360.339</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>261.81299999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>60.604999999999997</v>
+      </c>
+      <c r="D78">
+        <v>4381.8879999999999</v>
+      </c>
+      <c r="E78">
+        <v>879.68499999999995</v>
+      </c>
+      <c r="F78">
+        <v>357.02199999999999</v>
+      </c>
+      <c r="G78">
+        <v>3306.1889999999999</v>
+      </c>
+      <c r="H78">
+        <v>12164.841</v>
+      </c>
+      <c r="I78">
+        <v>1215.5550000000001</v>
+      </c>
+      <c r="J78">
+        <v>2455.64</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1685.9280000000001</v>
+      </c>
+      <c r="O78">
+        <v>5655.415</v>
+      </c>
+      <c r="P78">
+        <v>2971.2049999999999</v>
+      </c>
+      <c r="Q78">
+        <v>-96.694000000000003</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>4074</v>
+      </c>
+      <c r="T78">
+        <v>6509.4260000000004</v>
+      </c>
+      <c r="U78">
+        <v>885.16200000000003</v>
+      </c>
+      <c r="V78">
+        <v>137.20699999999999</v>
+      </c>
+      <c r="W78">
+        <v>-57.161999999999999</v>
+      </c>
+      <c r="X78">
+        <v>-118.91800000000001</v>
+      </c>
+      <c r="Y78">
+        <v>369.58300000000003</v>
+      </c>
+      <c r="Z78">
+        <v>-17.885999999999999</v>
+      </c>
+      <c r="AA78">
+        <v>60.604999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>-304.62299999999999</v>
+      </c>
+      <c r="D79">
+        <v>3400.5450000000001</v>
+      </c>
+      <c r="E79">
+        <v>569.18200000000002</v>
+      </c>
+      <c r="F79">
+        <v>-181.99</v>
+      </c>
+      <c r="G79">
+        <v>2509.1379999999999</v>
+      </c>
+      <c r="H79">
+        <v>11221.794</v>
+      </c>
+      <c r="I79">
+        <v>841.38300000000004</v>
+      </c>
+      <c r="J79">
+        <v>2496.0059999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-589.91</v>
+      </c>
+      <c r="N79">
+        <v>1308.8800000000001</v>
+      </c>
+      <c r="O79">
+        <v>5111.3159999999998</v>
+      </c>
+      <c r="P79">
+        <v>2963.0940000000001</v>
+      </c>
+      <c r="Q79">
+        <v>23.963999999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6110.4780000000001</v>
+      </c>
+      <c r="U79">
+        <v>909.12599999999998</v>
+      </c>
+      <c r="V79">
+        <v>190.09800000000001</v>
+      </c>
+      <c r="W79">
+        <v>-57.247999999999998</v>
+      </c>
+      <c r="X79">
+        <v>-71.456999999999994</v>
+      </c>
+      <c r="Y79">
+        <v>334.58800000000002</v>
+      </c>
+      <c r="Z79">
+        <v>-2.3450000000000002</v>
+      </c>
+      <c r="AA79">
+        <v>-304.62299999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>-176.67699999999999</v>
+      </c>
+      <c r="D80">
+        <v>2062.9299999999998</v>
+      </c>
+      <c r="E80">
+        <v>593.38499999999999</v>
+      </c>
+      <c r="F80">
+        <v>453.57900000000001</v>
+      </c>
+      <c r="G80">
+        <v>2803.5340000000001</v>
+      </c>
+      <c r="H80">
+        <v>11063.82</v>
+      </c>
+      <c r="I80">
+        <v>870.69500000000005</v>
+      </c>
+      <c r="J80">
+        <v>2480.7460000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1333.0419999999999</v>
+      </c>
+      <c r="O80">
+        <v>5149.3090000000002</v>
+      </c>
+      <c r="P80">
+        <v>2937.0369999999998</v>
+      </c>
+      <c r="Q80">
+        <v>-6.617</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5914.5110000000004</v>
+      </c>
+      <c r="U80">
+        <v>902.50900000000001</v>
+      </c>
+      <c r="V80">
+        <v>119.20399999999999</v>
+      </c>
+      <c r="W80">
+        <v>-57.182000000000002</v>
+      </c>
+      <c r="X80">
+        <v>-84.061999999999998</v>
+      </c>
+      <c r="Y80">
+        <v>318.95499999999998</v>
+      </c>
+      <c r="Z80">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="AA80">
+        <v>-176.67699999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>-2.4009999999999998</v>
+      </c>
+      <c r="D81">
+        <v>2819.4</v>
+      </c>
+      <c r="E81">
+        <v>551.91399999999999</v>
+      </c>
+      <c r="F81">
+        <v>174.91499999999999</v>
+      </c>
+      <c r="G81">
+        <v>3318.828</v>
+      </c>
+      <c r="H81">
+        <v>11579.741</v>
+      </c>
+      <c r="I81">
+        <v>825.02099999999996</v>
+      </c>
+      <c r="J81">
+        <v>3176.3490000000002</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1236.8499999999999</v>
+      </c>
+      <c r="O81">
+        <v>5703.1719999999996</v>
+      </c>
+      <c r="P81">
+        <v>3612.8069999999998</v>
+      </c>
+      <c r="Q81">
+        <v>622.37900000000002</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5876.5690000000004</v>
+      </c>
+      <c r="U81">
+        <v>1524.8879999999999</v>
+      </c>
+      <c r="V81">
+        <v>81.748000000000005</v>
+      </c>
+      <c r="W81">
+        <v>-57.173000000000002</v>
+      </c>
+      <c r="X81">
+        <v>618.726</v>
+      </c>
+      <c r="Y81">
+        <v>300.46800000000002</v>
+      </c>
+      <c r="Z81">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="AA81">
+        <v>-2.4009999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44196</v>
       </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82">
         <v>-117.747</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2900.768</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>630.03599999999994</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>203.358</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3310.761</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>11506.864</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1000.9589999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3142.7179999999998</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1375.1559999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5784.6610000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3577.3530000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-156.57</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>3891</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5722.2030000000004</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1368.318</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>66.881</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-57.89</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-109.98099999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>290.88200000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-117.747</v>
       </c>
     </row>
